--- a/example/Photocatalysis_LIKAT_template043_final.xlsx
+++ b/example/Photocatalysis_LIKAT_template043_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlinke\MyProg_local\TA1\voc4cat-tool\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DDCB96-08D7-4778-A614-1B944D447E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8DB22A-78DB-4CA3-85FA-FCD89EE5FE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="11685" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="660">
   <si>
     <t xml:space="preserve">Created by </t>
   </si>
@@ -2162,6 +2162,12 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>Flow mode CO2 reduction experiment</t>
+  </si>
+  <si>
+    <t>ex:photo/flow-mode-co2-reduction-experiment</t>
   </si>
 </sst>
 </file>
@@ -7264,7 +7270,7 @@
   </sheetPr>
   <dimension ref="A1:D999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -10412,10 +10418,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I543"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12642,99 +12648,99 @@
       </c>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
-        <v>263</v>
+        <v>395</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>264</v>
+        <v>396</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>265</v>
+        <v>397</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>266</v>
+        <v>398</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="13" t="s">
-        <v>86</v>
+        <v>399</v>
       </c>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="13" t="s">
-        <v>399</v>
+        <v>86</v>
       </c>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G94" s="12"/>
-      <c r="H94" s="13" t="s">
-        <v>86</v>
+      <c r="H94" s="15" t="s">
+        <v>408</v>
       </c>
       <c r="I94" s="12"/>
     </row>
-    <row r="95" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="15" t="s">
@@ -12742,74 +12748,74 @@
       </c>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G96" s="12"/>
-      <c r="H96" s="15" t="s">
+      <c r="H96" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="G97" s="12"/>
+      <c r="H97" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="I96" s="12"/>
-    </row>
-    <row r="97" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="15" t="s">
@@ -12817,49 +12823,49 @@
       </c>
       <c r="I98" s="12"/>
     </row>
-    <row r="99" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D99" s="13" t="s">
-        <v>423</v>
+      <c r="D99" s="12" t="s">
+        <v>427</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G99" s="12"/>
-      <c r="H99" s="15" t="s">
-        <v>408</v>
+      <c r="H99" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D100" s="12" t="s">
-        <v>427</v>
+      <c r="D100" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="13" t="s">
@@ -12867,24 +12873,24 @@
       </c>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G101" s="12"/>
       <c r="H101" s="13" t="s">
@@ -12892,24 +12898,24 @@
       </c>
       <c r="I101" s="12"/>
     </row>
-    <row r="102" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="13" t="s">
@@ -12917,24 +12923,24 @@
       </c>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G103" s="12"/>
       <c r="H103" s="13" t="s">
@@ -12942,49 +12948,49 @@
       </c>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G104" s="12"/>
-      <c r="H104" s="13" t="s">
-        <v>86</v>
+      <c r="H104" s="15" t="s">
+        <v>408</v>
       </c>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="15" t="s">
@@ -12992,49 +12998,49 @@
       </c>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G106" s="12"/>
-      <c r="H106" s="15" t="s">
-        <v>408</v>
+      <c r="H106" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>455</v>
+        <v>251</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>456</v>
+        <v>252</v>
       </c>
       <c r="G107" s="12"/>
       <c r="H107" s="13" t="s">
@@ -13042,166 +13048,164 @@
       </c>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>251</v>
+        <v>461</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>252</v>
+        <v>462</v>
       </c>
       <c r="G108" s="12"/>
       <c r="H108" s="13" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G109" s="12"/>
       <c r="H109" s="13" t="s">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="I109" s="12"/>
     </row>
     <row r="110" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>466</v>
-      </c>
+      <c r="F110" s="13"/>
       <c r="G110" s="12"/>
-      <c r="H110" s="13" t="s">
+      <c r="H110" s="15" t="s">
         <v>408</v>
       </c>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>468</v>
+        <v>470</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>471</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F111" s="13"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="15" t="s">
-        <v>408</v>
+      <c r="F111" s="12"/>
+      <c r="G111" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="I111" s="12"/>
     </row>
     <row r="112" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F112" s="12"/>
       <c r="G112" s="13" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H112" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I112" s="12"/>
-    </row>
-    <row r="113" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="B113" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F113" s="12"/>
-      <c r="G113" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>68</v>
@@ -13213,18 +13217,18 @@
       </c>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>68</v>
@@ -13236,24 +13240,26 @@
       </c>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
+      <c r="G116" s="13" t="s">
+        <v>490</v>
+      </c>
       <c r="H116" s="13" t="s">
         <v>72</v>
       </c>
@@ -13261,41 +13267,39 @@
     </row>
     <row r="117" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="G117" s="13" t="s">
-        <v>490</v>
-      </c>
+      <c r="G117" s="12"/>
       <c r="H117" s="13" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I117" s="12"/>
     </row>
     <row r="118" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>68</v>
@@ -13307,18 +13311,18 @@
       </c>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="B119" s="25" t="s">
-        <v>495</v>
+        <v>659</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>658</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>496</v>
+        <v>206</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>68</v>
@@ -13326,55 +13330,55 @@
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
       <c r="H119" s="13" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I119" s="12"/>
     </row>
-    <row r="120" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B120" s="25" t="s">
-        <v>205</v>
+        <v>497</v>
+      </c>
+      <c r="B120" s="28" t="s">
+        <v>498</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>206</v>
+        <v>499</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
+      <c r="F120" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>501</v>
+      </c>
       <c r="H120" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F121" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>501</v>
-      </c>
+      <c r="F121" s="12"/>
+      <c r="G121" s="13"/>
       <c r="H121" s="13" t="s">
         <v>72</v>
       </c>
@@ -13382,16 +13386,16 @@
     </row>
     <row r="122" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>68</v>
@@ -13403,66 +13407,66 @@
       </c>
       <c r="I122" s="12"/>
     </row>
-    <row r="123" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F123" s="12"/>
+      <c r="F123" s="13" t="s">
+        <v>511</v>
+      </c>
       <c r="G123" s="13"/>
       <c r="H123" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F124" s="13" t="s">
-        <v>511</v>
-      </c>
+      <c r="F124" s="12"/>
       <c r="G124" s="13"/>
       <c r="H124" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>68</v>
@@ -13474,18 +13478,18 @@
       </c>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>68</v>
@@ -13499,16 +13503,16 @@
     </row>
     <row r="127" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C127" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>68</v>
@@ -13520,145 +13524,145 @@
       </c>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="B128" s="25" t="s">
-        <v>522</v>
+        <v>524</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>525</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F128" s="12"/>
-      <c r="G128" s="13"/>
+      <c r="G128" s="13" t="s">
+        <v>527</v>
+      </c>
       <c r="H128" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I128" s="12"/>
     </row>
-    <row r="129" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D129" s="13" t="s">
-        <v>526</v>
+      <c r="D129" s="12" t="s">
+        <v>529</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F129" s="12"/>
-      <c r="G129" s="13" t="s">
-        <v>527</v>
-      </c>
+      <c r="G129" s="13"/>
       <c r="H129" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I129" s="12"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="B130" s="28" t="s">
-        <v>528</v>
+        <v>530</v>
+      </c>
+      <c r="B130" s="25" t="s">
+        <v>531</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D130" s="12" t="s">
-        <v>529</v>
+      <c r="D130" s="13" t="s">
+        <v>532</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F130" s="12"/>
-      <c r="G130" s="13"/>
+      <c r="G130" s="12" t="s">
+        <v>533</v>
+      </c>
       <c r="H130" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I130" s="12"/>
     </row>
-    <row r="131" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>531</v>
+        <v>313</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F131" s="12"/>
-      <c r="G131" s="12" t="s">
-        <v>533</v>
-      </c>
+      <c r="G131" s="12"/>
       <c r="H131" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I131" s="12"/>
     </row>
-    <row r="132" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="B132" s="25" t="s">
-        <v>313</v>
+        <v>536</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>537</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
+      <c r="G132" s="13" t="s">
+        <v>539</v>
+      </c>
       <c r="H132" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I132" s="12"/>
     </row>
-    <row r="133" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="B133" s="28" t="s">
-        <v>537</v>
+        <v>540</v>
+      </c>
+      <c r="B133" s="25" t="s">
+        <v>541</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F133" s="12"/>
-      <c r="G133" s="13" t="s">
-        <v>539</v>
-      </c>
+      <c r="G133" s="12"/>
       <c r="H133" s="13" t="s">
         <v>72</v>
       </c>
@@ -13666,16 +13670,16 @@
     </row>
     <row r="134" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="B134" s="25" t="s">
-        <v>541</v>
+        <v>543</v>
+      </c>
+      <c r="B134" s="28" t="s">
+        <v>544</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>68</v>
@@ -13689,16 +13693,16 @@
     </row>
     <row r="135" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="B135" s="28" t="s">
-        <v>544</v>
+        <v>546</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>547</v>
       </c>
       <c r="C135" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>68</v>
@@ -13710,308 +13714,308 @@
       </c>
       <c r="I135" s="12"/>
     </row>
-    <row r="136" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="B136" s="25" t="s">
-        <v>547</v>
+        <v>549</v>
+      </c>
+      <c r="B136" s="28" t="s">
+        <v>550</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
+      <c r="G136" s="12" t="s">
+        <v>552</v>
+      </c>
       <c r="H136" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I136" s="12"/>
     </row>
-    <row r="137" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="B137" s="28" t="s">
-        <v>550</v>
+        <v>553</v>
+      </c>
+      <c r="B137" s="25" t="s">
+        <v>554</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F137" s="12"/>
       <c r="G137" s="12" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H137" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I137" s="12"/>
     </row>
-    <row r="138" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F138" s="12"/>
-      <c r="G138" s="12" t="s">
-        <v>556</v>
-      </c>
+      <c r="G138" s="12"/>
       <c r="H138" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I138" s="12"/>
     </row>
-    <row r="139" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
+      <c r="G139" s="13" t="s">
+        <v>562</v>
+      </c>
       <c r="H139" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I139" s="12"/>
     </row>
-    <row r="140" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C140" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="13" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H140" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I140" s="12"/>
     </row>
-    <row r="141" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C141" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F141" s="12"/>
-      <c r="G141" s="13" t="s">
-        <v>566</v>
-      </c>
+      <c r="G141" s="12"/>
       <c r="H141" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I141" s="12"/>
     </row>
-    <row r="142" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
-      <c r="H142" s="13" t="s">
-        <v>72</v>
+      <c r="H142" s="15" t="s">
+        <v>408</v>
       </c>
       <c r="I142" s="12"/>
     </row>
-    <row r="143" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
-      <c r="H143" s="15" t="s">
-        <v>408</v>
+      <c r="H143" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="I143" s="12"/>
     </row>
-    <row r="144" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
+      <c r="G144" s="13" t="s">
+        <v>579</v>
+      </c>
       <c r="H144" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I144" s="12"/>
     </row>
-    <row r="145" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C145" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="13" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="H145" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I145" s="12"/>
     </row>
-    <row r="146" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F146" s="12"/>
-      <c r="G146" s="13" t="s">
-        <v>583</v>
+      <c r="G146" s="12" t="s">
+        <v>587</v>
       </c>
       <c r="H146" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I146" s="12"/>
     </row>
-    <row r="147" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C147" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F147" s="12"/>
-      <c r="G147" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="H147" s="13" t="s">
-        <v>72</v>
+      <c r="G147" s="13"/>
+      <c r="H147" s="12" t="s">
+        <v>591</v>
       </c>
       <c r="I147" s="12"/>
     </row>
-    <row r="148" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="B148" s="25" t="s">
-        <v>589</v>
+        <v>592</v>
+      </c>
+      <c r="B148" s="28" t="s">
+        <v>593</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>68</v>
@@ -14019,51 +14023,53 @@
       <c r="F148" s="12"/>
       <c r="G148" s="13"/>
       <c r="H148" s="12" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="I148" s="12"/>
     </row>
-    <row r="149" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="B149" s="28" t="s">
-        <v>593</v>
+        <v>596</v>
+      </c>
+      <c r="B149" s="25" t="s">
+        <v>597</v>
       </c>
       <c r="C149" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F149" s="12"/>
+      <c r="F149" s="13" t="s">
+        <v>599</v>
+      </c>
       <c r="G149" s="13"/>
-      <c r="H149" s="12" t="s">
-        <v>595</v>
+      <c r="H149" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="I149" s="12"/>
     </row>
     <row r="150" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="G150" s="13"/>
       <c r="H150" s="13" t="s">
@@ -14073,23 +14079,21 @@
     </row>
     <row r="151" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F151" s="13" t="s">
-        <v>603</v>
-      </c>
+      <c r="F151" s="12"/>
       <c r="G151" s="13"/>
       <c r="H151" s="13" t="s">
         <v>72</v>
@@ -14098,16 +14102,16 @@
     </row>
     <row r="152" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>68</v>
@@ -14119,71 +14123,73 @@
       </c>
       <c r="I152" s="12"/>
     </row>
-    <row r="153" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F153" s="12"/>
-      <c r="G153" s="13"/>
+      <c r="G153" s="12"/>
       <c r="H153" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I153" s="12"/>
     </row>
-    <row r="154" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
+      <c r="G154" s="12" t="s">
+        <v>616</v>
+      </c>
       <c r="H154" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I154" s="12"/>
     </row>
-    <row r="155" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F155" s="12"/>
       <c r="G155" s="12" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="H155" s="13" t="s">
         <v>72</v>
@@ -14192,24 +14198,22 @@
     </row>
     <row r="156" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F156" s="12"/>
-      <c r="G156" s="12" t="s">
-        <v>620</v>
-      </c>
+      <c r="G156" s="12"/>
       <c r="H156" s="13" t="s">
         <v>72</v>
       </c>
@@ -14217,16 +14221,16 @@
     </row>
     <row r="157" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D157" s="13" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>68</v>
@@ -14240,16 +14244,16 @@
     </row>
     <row r="158" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="B158" s="25" t="s">
-        <v>625</v>
+        <v>627</v>
+      </c>
+      <c r="B158" s="28" t="s">
+        <v>628</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D158" s="13" t="s">
-        <v>626</v>
+      <c r="D158" s="12" t="s">
+        <v>629</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>68</v>
@@ -14261,31 +14265,19 @@
       </c>
       <c r="I158" s="12"/>
     </row>
-    <row r="159" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="B159" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>68</v>
-      </c>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="15"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="12"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
-      <c r="H159" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="H159" s="12"/>
       <c r="I159" s="12"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="15"/>
+      <c r="A160" s="12"/>
       <c r="B160" s="25"/>
       <c r="C160" s="12"/>
       <c r="D160" s="13"/>
@@ -14297,7 +14289,6 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="12"/>
-      <c r="B161" s="25"/>
       <c r="C161" s="12"/>
       <c r="D161" s="13"/>
       <c r="E161" s="12"/>
@@ -14319,7 +14310,7 @@
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="12"/>
       <c r="C163" s="12"/>
-      <c r="D163" s="13"/>
+      <c r="D163" s="12"/>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
@@ -14357,9 +14348,9 @@
       <c r="I166" s="12"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167" s="12"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
+      <c r="A167" s="13"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
@@ -14367,8 +14358,8 @@
       <c r="I167" s="12"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A168" s="13"/>
-      <c r="C168" s="13"/>
+      <c r="A168" s="14"/>
+      <c r="C168" s="14"/>
       <c r="D168" s="13"/>
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
@@ -14398,6 +14389,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="14"/>
+      <c r="B171" s="27"/>
       <c r="C171" s="14"/>
       <c r="D171" s="13"/>
       <c r="E171" s="12"/>
@@ -14440,10 +14432,10 @@
       <c r="I174" s="12"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" s="14"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="13"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
@@ -14462,7 +14454,7 @@
       <c r="I176" s="12"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="13"/>
+      <c r="A177" s="12"/>
       <c r="B177" s="28"/>
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
@@ -14495,7 +14487,7 @@
       <c r="I179" s="12"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" s="12"/>
+      <c r="A180" s="13"/>
       <c r="B180" s="28"/>
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
@@ -14506,7 +14498,7 @@
       <c r="I180" s="12"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="13"/>
+      <c r="A181" s="12"/>
       <c r="B181" s="28"/>
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
@@ -14517,7 +14509,7 @@
       <c r="I181" s="12"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" s="12"/>
+      <c r="A182" s="13"/>
       <c r="B182" s="28"/>
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
@@ -14638,7 +14630,7 @@
       <c r="I192" s="12"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193" s="13"/>
+      <c r="A193" s="12"/>
       <c r="B193" s="28"/>
       <c r="C193" s="12"/>
       <c r="D193" s="12"/>
@@ -18498,17 +18490,6 @@
       <c r="H543" s="12"/>
       <c r="I543" s="12"/>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A544" s="12"/>
-      <c r="B544" s="28"/>
-      <c r="C544" s="12"/>
-      <c r="D544" s="12"/>
-      <c r="E544" s="12"/>
-      <c r="F544" s="12"/>
-      <c r="G544" s="12"/>
-      <c r="H544" s="12"/>
-      <c r="I544" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -18516,14 +18497,14 @@
   <hyperlinks>
     <hyperlink ref="H36" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="H45" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="H95" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="H96" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="H98" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="H99" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="H105" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="H106" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="H111" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="H143" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="H94" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="H95" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="H97" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H98" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="H104" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="H105" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="H110" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="H142" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
@@ -18580,7 +18561,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A3,Concepts!A3:A544,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A3,Concepts!A3:A543,1), "")</f>
         <v>ex:photo/photocatalytic-co2-reduction</v>
       </c>
       <c r="B3" s="12"/>
@@ -18591,7 +18572,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A4,Concepts!A4:A545,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A4,Concepts!A4:A544,1), "")</f>
         <v>ex:photo/general-terms</v>
       </c>
       <c r="B4" s="12"/>
@@ -18602,7 +18583,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A5,Concepts!A5:A546,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A5,Concepts!A5:A545,1), "")</f>
         <v>ex:photo/photocatalyst</v>
       </c>
       <c r="B5" s="12"/>
@@ -18613,7 +18594,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A6,Concepts!A6:A547,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A6,Concepts!A6:A546,1), "")</f>
         <v>ex:photo/conduction-band</v>
       </c>
       <c r="B6" s="12"/>
@@ -18624,7 +18605,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A7,Concepts!A7:A548,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A7,Concepts!A7:A547,1), "")</f>
         <v>ex:photo/valence-band</v>
       </c>
       <c r="B7" s="12"/>
@@ -18635,7 +18616,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A8,Concepts!A8:A549,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A8,Concepts!A8:A548,1), "")</f>
         <v>ex:photo/fermi-level</v>
       </c>
       <c r="B8" s="12"/>
@@ -18646,7 +18627,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A9,Concepts!A9:A550,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A9,Concepts!A9:A549,1), "")</f>
         <v>ex:photo/semiconductor</v>
       </c>
       <c r="B9" s="12"/>
@@ -18657,7 +18638,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A10,Concepts!A10:A551,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A10,Concepts!A10:A550,1), "")</f>
         <v>ex:photo/metal-oxide</v>
       </c>
       <c r="B10" s="12"/>
@@ -18668,7 +18649,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A11,Concepts!A11:A552,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A11,Concepts!A11:A551,1), "")</f>
         <v>ex:photo/bandgap-energy</v>
       </c>
       <c r="B11" s="12"/>
@@ -18679,7 +18660,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A12,Concepts!A12:A553,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A12,Concepts!A12:A552,1), "")</f>
         <v>ex:photo/charge-photogeneration</v>
       </c>
       <c r="B12" s="12"/>
@@ -18690,7 +18671,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A13,Concepts!A13:A554,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A13,Concepts!A13:A553,1), "")</f>
         <v>ex:photo/hole-transfer</v>
       </c>
       <c r="B13" s="12"/>
@@ -18701,7 +18682,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A14,Concepts!A14:A555,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A14,Concepts!A14:A554,1), "")</f>
         <v>ex:photo/electron-transfer</v>
       </c>
       <c r="B14" s="12"/>
@@ -18712,7 +18693,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A15,Concepts!A15:A556,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A15,Concepts!A15:A555,1), "")</f>
         <v>ex:photo/charge-separation</v>
       </c>
       <c r="B15" s="12"/>
@@ -18723,7 +18704,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A16,Concepts!A16:A557,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A16,Concepts!A16:A556,1), "")</f>
         <v>ex:photo/charge-recombination</v>
       </c>
       <c r="B16" s="12"/>
@@ -18734,7 +18715,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A17,Concepts!A17:A558,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A17,Concepts!A17:A557,1), "")</f>
         <v>ex:photo/pore-size-distribution</v>
       </c>
       <c r="B17" s="12"/>
@@ -18745,7 +18726,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A18,Concepts!A18:A559,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A18,Concepts!A18:A558,1), "")</f>
         <v>ex:photo/crystallinity</v>
       </c>
       <c r="B18" s="12"/>
@@ -18756,7 +18737,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A19,Concepts!A19:A560,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A19,Concepts!A19:A559,1), "")</f>
         <v>ex:photo/photoexcitation</v>
       </c>
       <c r="B19" s="12"/>
@@ -18767,7 +18748,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A20,Concepts!A20:A561,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A20,Concepts!A20:A560,1), "")</f>
         <v>ex:photo/excited-state</v>
       </c>
       <c r="B20" s="12"/>
@@ -18778,7 +18759,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A21,Concepts!A21:A562,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A21,Concepts!A21:A561,1), "")</f>
         <v>ex:photo/ground-state</v>
       </c>
       <c r="B21" s="12"/>
@@ -18789,7 +18770,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A22,Concepts!A22:A563,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A22,Concepts!A22:A562,1), "")</f>
         <v>ex:photo/oxidation</v>
       </c>
       <c r="B22" s="12"/>
@@ -18800,7 +18781,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A23,Concepts!A23:A564,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A23,Concepts!A23:A563,1), "")</f>
         <v>ex:photo/reduction</v>
       </c>
       <c r="B23" s="12"/>
@@ -18811,7 +18792,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A24,Concepts!A24:A565,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A24,Concepts!A24:A564,1), "")</f>
         <v>ex:photo/ultraviolet</v>
       </c>
       <c r="B24" s="12"/>
@@ -18822,7 +18803,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A25,Concepts!A25:A566,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A25,Concepts!A25:A565,1), "")</f>
         <v>ex:photo/visible</v>
       </c>
       <c r="B25" s="12"/>
@@ -18833,7 +18814,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A26,Concepts!A26:A567,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A26,Concepts!A26:A566,1), "")</f>
         <v>ex:photo/infrared</v>
       </c>
       <c r="B26" s="12"/>
@@ -18844,7 +18825,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A27,Concepts!A27:A568,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A27,Concepts!A27:A567,1), "")</f>
         <v>ex:photo/wavelength</v>
       </c>
       <c r="B27" s="12"/>
@@ -18855,7 +18836,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A28,Concepts!A28:A569,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A28,Concepts!A28:A568,1), "")</f>
         <v>ex:photo/absorption</v>
       </c>
       <c r="B28" s="12"/>
@@ -18866,7 +18847,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A29,Concepts!A29:A570,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A29,Concepts!A29:A569,1), "")</f>
         <v>ex:photo/doping</v>
       </c>
       <c r="B29" s="12"/>
@@ -18877,7 +18858,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A30,Concepts!A30:A571,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A30,Concepts!A30:A570,1), "")</f>
         <v>ex:photo/specific-surface-area</v>
       </c>
       <c r="B30" s="12"/>
@@ -18888,7 +18869,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A31,Concepts!A31:A572,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A31,Concepts!A31:A571,1), "")</f>
         <v>ex:photo/photoreactor-design</v>
       </c>
       <c r="B31" s="12"/>
@@ -18899,7 +18880,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A32,Concepts!A32:A573,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A32,Concepts!A32:A572,1), "")</f>
         <v>ex:photo/range-of-operation-temperature</v>
       </c>
       <c r="B32" s="12"/>
@@ -18910,7 +18891,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A33,Concepts!A33:A574,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A33,Concepts!A33:A573,1), "")</f>
         <v>ex:photo/equipment-for-controlling-and-monitoring-operation-temperature</v>
       </c>
       <c r="B33" s="12"/>
@@ -18921,7 +18902,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A34,Concepts!A34:A575,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A34,Concepts!A34:A574,1), "")</f>
         <v>ex:photo/range-of-operation-pressure</v>
       </c>
       <c r="B34" s="12"/>
@@ -18932,7 +18913,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A35,Concepts!A35:A576,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A35,Concepts!A35:A575,1), "")</f>
         <v>ex:photo/equipment-for-controlling-and-monitoring-operation-pressure</v>
       </c>
       <c r="B35" s="12"/>
@@ -18943,7 +18924,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A36,Concepts!A36:A577,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A36,Concepts!A36:A576,1), "")</f>
         <v>ex:photo/vacuum-pump</v>
       </c>
       <c r="B36" s="12"/>
@@ -18954,7 +18935,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A37,Concepts!A37:A578,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A37,Concepts!A37:A577,1), "")</f>
         <v>ex:photo/operation-mode</v>
       </c>
       <c r="B37" s="12"/>
@@ -18965,7 +18946,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A38,Concepts!A38:A579,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A38,Concepts!A38:A578,1), "")</f>
         <v>ex:photo/batch-mode</v>
       </c>
       <c r="B38" s="12"/>
@@ -18976,7 +18957,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A39,Concepts!A39:A580,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A39,Concepts!A39:A579,1), "")</f>
         <v>ex:photo/flow-mode</v>
       </c>
       <c r="B39" s="12"/>
@@ -18987,7 +18968,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A40,Concepts!A40:A581,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A40,Concepts!A40:A580,1), "")</f>
         <v>ex:photo/reaction-chamber</v>
       </c>
       <c r="B40" s="12"/>
@@ -18998,7 +18979,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A41,Concepts!A41:A582,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A41,Concepts!A41:A581,1), "")</f>
         <v>ex:photo/shape-of-reaction-chamber</v>
       </c>
       <c r="B41" s="12"/>
@@ -19009,7 +18990,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A42,Concepts!A42:A583,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A42,Concepts!A42:A582,1), "")</f>
         <v>ex:photo/dimensions-of-reaction-chamber</v>
       </c>
       <c r="B42" s="12"/>
@@ -19020,7 +19001,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A43,Concepts!A43:A584,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A43,Concepts!A43:A583,1), "")</f>
         <v>ex:photo/volume-of-the-reaction-chamber</v>
       </c>
       <c r="B43" s="12"/>
@@ -19031,7 +19012,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A44,Concepts!A44:A585,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A44,Concepts!A44:A584,1), "")</f>
         <v>ex:photo/material-of-reaction-chamber</v>
       </c>
       <c r="B44" s="12"/>
@@ -19042,7 +19023,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A45,Concepts!A45:A586,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A45,Concepts!A45:A585,1), "")</f>
         <v>ex:photo/optical-window</v>
       </c>
       <c r="B45" s="12"/>
@@ -19053,7 +19034,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A46,Concepts!A46:A587,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A46,Concepts!A46:A586,1), "")</f>
         <v>ex:photo/material-of-optical-window</v>
       </c>
       <c r="B46" s="12"/>
@@ -19064,7 +19045,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A47,Concepts!A47:A588,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A47,Concepts!A47:A587,1), "")</f>
         <v>ex:photo/dimensions-of-optical-window</v>
       </c>
       <c r="B47" s="12"/>
@@ -19075,7 +19056,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A48,Concepts!A48:A589,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A48,Concepts!A48:A588,1), "")</f>
         <v>ex:photo/diameter-of-optical-window</v>
       </c>
       <c r="B48" s="12"/>
@@ -19086,7 +19067,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A49,Concepts!A49:A590,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A49,Concepts!A49:A589,1), "")</f>
         <v>ex:photo/thickness-of-optical-window</v>
       </c>
       <c r="B49" s="12"/>
@@ -19097,7 +19078,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A50,Concepts!A50:A591,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A50,Concepts!A50:A590,1), "")</f>
         <v>ex:photo/product-identification-method</v>
       </c>
       <c r="B50" s="12"/>
@@ -19108,7 +19089,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A51,Concepts!A51:A592,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A51,Concepts!A51:A591,1), "")</f>
         <v>ex:photo/mass-spectrometry</v>
       </c>
       <c r="B51" s="12"/>
@@ -19119,7 +19100,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A52,Concepts!A52:A593,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A52,Concepts!A52:A592,1), "")</f>
         <v>ex:photo/calibration-of-mass-spectrometer</v>
       </c>
       <c r="B52" s="12"/>
@@ -19130,7 +19111,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A53,Concepts!A53:A594,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A53,Concepts!A53:A593,1), "")</f>
         <v>ex:photo/sensitivity-of-mass-spectrometer</v>
       </c>
       <c r="B53" s="12"/>
@@ -19141,7 +19122,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A54,Concepts!A54:A595,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A54,Concepts!A54:A594,1), "")</f>
         <v>ex:photo/equipped-detectors-of-mass-spectrometer</v>
       </c>
       <c r="B54" s="12"/>
@@ -19152,7 +19133,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A55,Concepts!A55:A596,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A55,Concepts!A55:A595,1), "")</f>
         <v>ex:photo/gas-chromatography</v>
       </c>
       <c r="B55" s="12"/>
@@ -19163,7 +19144,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A56,Concepts!A56:A597,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A56,Concepts!A56:A596,1), "")</f>
         <v>ex:photo/calibration-of-gas-chromatograph</v>
       </c>
       <c r="B56" s="12"/>
@@ -19174,7 +19155,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A57,Concepts!A57:A598,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A57,Concepts!A57:A597,1), "")</f>
         <v>ex:photo/sensitivity-of-gas-chromatograph</v>
       </c>
       <c r="B57" s="12"/>
@@ -19185,7 +19166,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A58,Concepts!A58:A599,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A58,Concepts!A58:A598,1), "")</f>
         <v>ex:photo/equipped-detectors-of-gas-chromatograph</v>
       </c>
       <c r="B58" s="12"/>
@@ -19196,7 +19177,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A59,Concepts!A59:A600,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A59,Concepts!A59:A599,1), "")</f>
         <v>ex:photo/flame-ionization-detector</v>
       </c>
       <c r="B59" s="12"/>
@@ -19207,7 +19188,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A60,Concepts!A60:A601,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A60,Concepts!A60:A600,1), "")</f>
         <v>ex:photo/dielectric-barrier-discharge-ionization-detector</v>
       </c>
       <c r="B60" s="12"/>
@@ -19218,7 +19199,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A61,Concepts!A61:A602,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A61,Concepts!A61:A601,1), "")</f>
         <v>ex:photo/thermal-conductivity-detector</v>
       </c>
       <c r="B61" s="12"/>
@@ -19229,7 +19210,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A62,Concepts!A62:A603,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A62,Concepts!A62:A602,1), "")</f>
         <v>ex:photo/light-source</v>
       </c>
       <c r="B62" s="12"/>
@@ -19240,7 +19221,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A63,Concepts!A63:A604,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A63,Concepts!A63:A603,1), "")</f>
         <v>ex:photo/wavelength-range</v>
       </c>
       <c r="B63" s="12"/>
@@ -19251,7 +19232,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A64,Concepts!A64:A605,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A64,Concepts!A64:A604,1), "")</f>
         <v>ex:photo/current-of-operation-of-the-light-source</v>
       </c>
       <c r="B64" s="12"/>
@@ -19262,7 +19243,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A65,Concepts!A65:A606,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A65,Concepts!A65:A605,1), "")</f>
         <v>ex:photo/voltage-of-operation-of-the-light-source</v>
       </c>
       <c r="B65" s="12"/>
@@ -19273,7 +19254,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A66,Concepts!A66:A607,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A66,Concepts!A66:A606,1), "")</f>
         <v>ex:photo/power-output-of-the-light-source</v>
       </c>
       <c r="B66" s="12"/>
@@ -19284,7 +19265,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A67,Concepts!A67:A608,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A67,Concepts!A67:A607,1), "")</f>
         <v>ex:photo/distance-of-light-source-from-the-reaction-chamber-sample</v>
       </c>
       <c r="B67" s="12"/>
@@ -19295,7 +19276,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A68,Concepts!A68:A609,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A68,Concepts!A68:A608,1), "")</f>
         <v>ex:photo/intensity-of-the-light-source</v>
       </c>
       <c r="B68" s="12"/>
@@ -19306,7 +19287,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A69,Concepts!A69:A610,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A69,Concepts!A69:A609,1), "")</f>
         <v>ex:photo/gas-flow</v>
       </c>
       <c r="B69" s="12"/>
@@ -19317,7 +19298,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A70,Concepts!A70:A611,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A70,Concepts!A70:A610,1), "")</f>
         <v>ex:photo/equipment-controlling-and-monitoring-gas-flow</v>
       </c>
       <c r="B70" s="12"/>
@@ -19328,7 +19309,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A71,Concepts!A71:A612,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A71,Concepts!A71:A611,1), "")</f>
         <v>ex:photo/mass-flow-controller</v>
       </c>
       <c r="B71" s="12"/>
@@ -19339,7 +19320,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A72,Concepts!A72:A613,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A72,Concepts!A72:A612,1), "")</f>
         <v>ex:photo/synthesis-of-photocatalysts</v>
       </c>
       <c r="B72" s="12"/>
@@ -19350,7 +19331,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A73,Concepts!A73:A614,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A73,Concepts!A73:A613,1), "")</f>
         <v>ex:photo/literature-research</v>
       </c>
       <c r="B73" s="12"/>
@@ -19361,7 +19342,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A74,Concepts!A74:A615,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A74,Concepts!A74:A614,1), "")</f>
         <v>ex:photo/collection-of-publications-of-interest</v>
       </c>
       <c r="B74" s="12"/>
@@ -19372,7 +19353,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A75,Concepts!A75:A616,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A75,Concepts!A75:A615,1), "")</f>
         <v>ex:photo/organization-of-literature-in-a-citation-management-software</v>
       </c>
       <c r="B75" s="12"/>
@@ -19383,7 +19364,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A76,Concepts!A76:A617,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A76,Concepts!A76:A616,1), "")</f>
         <v>ex:photo/synthesis-steps</v>
       </c>
       <c r="B76" s="12"/>
@@ -19394,7 +19375,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A77,Concepts!A77:A618,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A77,Concepts!A77:A617,1), "")</f>
         <v>ex:photo/equipment-used-for-synthesis</v>
       </c>
       <c r="B77" s="12"/>
@@ -19405,7 +19386,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A78,Concepts!A78:A619,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A78,Concepts!A78:A618,1), "")</f>
         <v>ex:photo/chemical-substances-used-for-synthesis</v>
       </c>
       <c r="B78" s="12"/>
@@ -19416,7 +19397,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A79,Concepts!A79:A620,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A79,Concepts!A79:A619,1), "")</f>
         <v>ex:photo/masses-volumes-concentrations-of-chemicals-used-in-synthesis</v>
       </c>
       <c r="B79" s="12"/>
@@ -19427,7 +19408,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A80,Concepts!A80:A621,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A80,Concepts!A80:A620,1), "")</f>
         <v>ex:photo/duration-of-steps</v>
       </c>
       <c r="B80" s="12"/>
@@ -19438,7 +19419,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A81,Concepts!A81:A622,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A81,Concepts!A81:A621,1), "")</f>
         <v>ex:photo/pressure-in-synthesis</v>
       </c>
       <c r="B81" s="12"/>
@@ -19449,7 +19430,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A82,Concepts!A82:A623,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A82,Concepts!A82:A622,1), "")</f>
         <v>ex:photo/temperature-in-synthesis</v>
       </c>
       <c r="B82" s="12"/>
@@ -19460,7 +19441,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A83,Concepts!A83:A624,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A83,Concepts!A83:A623,1), "")</f>
         <v>ex:photo/ph-in-synthesis</v>
       </c>
       <c r="B83" s="12"/>
@@ -19471,7 +19452,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A84,Concepts!A84:A625,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A84,Concepts!A84:A624,1), "")</f>
         <v>ex:photo/calcination-steps</v>
       </c>
       <c r="B84" s="12"/>
@@ -19482,7 +19463,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A85,Concepts!A85:A626,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A85,Concepts!A85:A625,1), "")</f>
         <v>ex:photo/initial-temperature</v>
       </c>
       <c r="B85" s="12"/>
@@ -19493,7 +19474,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A86,Concepts!A86:A627,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A86,Concepts!A86:A626,1), "")</f>
         <v>ex:photo/final-temperature</v>
       </c>
       <c r="B86" s="12"/>
@@ -19504,7 +19485,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A87,Concepts!A87:A628,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A87,Concepts!A87:A627,1), "")</f>
         <v>ex:photo/heating-rate</v>
       </c>
       <c r="B87" s="12"/>
@@ -19515,7 +19496,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A88,Concepts!A88:A629,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A88,Concepts!A88:A628,1), "")</f>
         <v>ex:photo/dwelling-time</v>
       </c>
       <c r="B88" s="12"/>
@@ -19526,7 +19507,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A89,Concepts!A89:A630,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A89,Concepts!A89:A629,1), "")</f>
         <v>ex:photo/gaseous-environment</v>
       </c>
       <c r="B89" s="12"/>
@@ -19537,7 +19518,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A90,Concepts!A90:A631,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A90,Concepts!A90:A630,1), "")</f>
         <v>ex:photo/flow-rate-of-gas-used-for-calcination</v>
       </c>
       <c r="B90" s="12"/>
@@ -19548,7 +19529,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A91,Concepts!A91:A632,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A91,Concepts!A91:A631,1), "")</f>
         <v>ex:photo/characterization-of-photocatalysts</v>
       </c>
       <c r="B91" s="12"/>
@@ -19559,8 +19540,8 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A92,Concepts!A92:A633,1), "")</f>
-        <v>ex:photo/gas-chromatography</v>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A92:A632,1), "")</f>
+        <v/>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -19570,7 +19551,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A93,Concepts!A93:A634,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A92,Concepts!A92:A633,1), "")</f>
         <v>ex:photo/x-ray-fluorescence</v>
       </c>
       <c r="B93" s="12"/>
@@ -19581,7 +19562,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A94,Concepts!A94:A635,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A93,Concepts!A93:A634,1), "")</f>
         <v>ex:photo/electron-energy-loss-spectroscopy</v>
       </c>
       <c r="B94" s="12"/>
@@ -19592,7 +19573,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A95,Concepts!A95:A636,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A94,Concepts!A94:A635,1), "")</f>
         <v>ex:photo/raman-spectroscopy</v>
       </c>
       <c r="B95" s="12"/>
@@ -19603,7 +19584,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A96,Concepts!A96:A637,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A95,Concepts!A95:A636,1), "")</f>
         <v>ex:photo/atomic-force-microscopy</v>
       </c>
       <c r="B96" s="12"/>
@@ -19614,7 +19595,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A97,Concepts!A97:A638,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A96,Concepts!A96:A637,1), "")</f>
         <v>ex:photo/differential-scanning-calorimetry</v>
       </c>
       <c r="B97" s="12"/>
@@ -19625,7 +19606,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A98,Concepts!A98:A639,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A97,Concepts!A97:A638,1), "")</f>
         <v>ex:photo/thermogravimetric-analysis</v>
       </c>
       <c r="B98" s="12"/>
@@ -19636,7 +19617,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A99,Concepts!A99:A640,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A98,Concepts!A98:A639,1), "")</f>
         <v>ex:photo/nuclear-magnetic-resonance-spectroscopy</v>
       </c>
       <c r="B99" s="12"/>
@@ -19647,7 +19628,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A100,Concepts!A100:A641,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A99,Concepts!A99:A640,1), "")</f>
         <v>ex:photo/photoluminescence</v>
       </c>
       <c r="B100" s="12"/>
@@ -19658,7 +19639,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A101,Concepts!A101:A642,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A100,Concepts!A100:A641,1), "")</f>
         <v>ex:photo/scanning-electron-microscopy</v>
       </c>
       <c r="B101" s="12"/>
@@ -19669,7 +19650,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A102,Concepts!A102:A643,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A101,Concepts!A101:A642,1), "")</f>
         <v>ex:photo/x-ray-photoelectron-spectroscopy</v>
       </c>
       <c r="B102" s="12"/>
@@ -19680,7 +19661,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A103,Concepts!A103:A644,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A102,Concepts!A102:A643,1), "")</f>
         <v>ex:photo/x-ray-diffraction</v>
       </c>
       <c r="B103" s="12"/>
@@ -19691,7 +19672,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A104,Concepts!A104:A645,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A103,Concepts!A103:A644,1), "")</f>
         <v>ex:photo/transmission-electron-microscopy</v>
       </c>
       <c r="B104" s="12"/>
@@ -19702,7 +19683,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A105,Concepts!A105:A646,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A104,Concepts!A104:A645,1), "")</f>
         <v>ex:photo/ultraviolet-visible-spectroscopy</v>
       </c>
       <c r="B105" s="12"/>
@@ -19713,7 +19694,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A106,Concepts!A106:A647,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A105,Concepts!A105:A646,1), "")</f>
         <v>ex:photo/fourier-transform-infrared-spectroscopy</v>
       </c>
       <c r="B106" s="12"/>
@@ -19724,7 +19705,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A107,Concepts!A107:A648,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A106,Concepts!A106:A647,1), "")</f>
         <v>ex:photo/liquid-chromatography</v>
       </c>
       <c r="B107" s="12"/>
@@ -19735,7 +19716,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A108,Concepts!A108:A649,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A107,Concepts!A107:A648,1), "")</f>
         <v>ex:photo/mass-spectroscopy</v>
       </c>
       <c r="B108" s="12"/>
@@ -19746,7 +19727,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A109,Concepts!A109:A650,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A108,Concepts!A108:A649,1), "")</f>
         <v>ex:photo/brunauer-emmett-teller-surface-area-analysis</v>
       </c>
       <c r="B109" s="12"/>
@@ -19757,7 +19738,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A110,Concepts!A110:A651,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A109,Concepts!A109:A650,1), "")</f>
         <v>ex:photo/cyclic-voltammetry</v>
       </c>
       <c r="B110" s="12"/>
@@ -19768,7 +19749,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A111,Concepts!A111:A652,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A110,Concepts!A110:A651,1), "")</f>
         <v>ex:photo/mott-schottky-analysis</v>
       </c>
       <c r="B111" s="12"/>
@@ -19779,7 +19760,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A112,Concepts!A112:A653,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A111,Concepts!A111:A652,1), "")</f>
         <v>ex:photo/evaluation-of-performance</v>
       </c>
       <c r="B112" s="12"/>
@@ -19790,7 +19771,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A113,Concepts!A113:A654,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A112,Concepts!A112:A653,1), "")</f>
         <v>ex:photo/reactants</v>
       </c>
       <c r="B113" s="12"/>
@@ -19801,7 +19782,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A114,Concepts!A114:A655,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A113,Concepts!A113:A654,1), "")</f>
         <v>ex:photo/concentration-of-reactants</v>
       </c>
       <c r="B114" s="12"/>
@@ -19812,7 +19793,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A115,Concepts!A115:A656,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A114,Concepts!A114:A655,1), "")</f>
         <v>ex:photo/purity-of-reactants</v>
       </c>
       <c r="B115" s="12"/>
@@ -19823,7 +19804,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A116,Concepts!A116:A657,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A115,Concepts!A115:A656,1), "")</f>
         <v>ex:photo/flow-rates-of-reactants</v>
       </c>
       <c r="B116" s="12"/>
@@ -19834,7 +19815,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A117,Concepts!A117:A658,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A116,Concepts!A116:A657,1), "")</f>
         <v>ex:photo/sacrificial-reagents</v>
       </c>
       <c r="B117" s="12"/>
@@ -19845,7 +19826,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A118,Concepts!A118:A659,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A117,Concepts!A117:A658,1), "")</f>
         <v>ex:photo/sacrificial-acceptor</v>
       </c>
       <c r="B118" s="12"/>
@@ -19856,7 +19837,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A119,Concepts!A119:A660,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A118,Concepts!A118:A659,1), "")</f>
         <v>ex:photo/sacrificial-donor</v>
       </c>
       <c r="B119" s="12"/>
@@ -19867,8 +19848,8 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A120,Concepts!A120:A661,1), "")</f>
-        <v>ex:photo/flow-mode</v>
+        <f>IFERROR(HLOOKUP(Concepts!A119,Concepts!A119:A660,1), "")</f>
+        <v>ex:photo/flow-mode-co2-reduction-experiment</v>
       </c>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -19878,7 +19859,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A121,Concepts!A121:A662,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A120,Concepts!A120:A661,1), "")</f>
         <v>ex:photo/photocatalytic-co2-reduction-experiment</v>
       </c>
       <c r="B121" s="12"/>
@@ -19889,7 +19870,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A122,Concepts!A122:A663,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A121,Concepts!A121:A662,1), "")</f>
         <v>ex:photo/selectivity</v>
       </c>
       <c r="B122" s="12"/>
@@ -19900,7 +19881,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A123,Concepts!A123:A664,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A122,Concepts!A122:A663,1), "")</f>
         <v>ex:photo/evaluation-of-products-formed</v>
       </c>
       <c r="B123" s="12"/>
@@ -19911,7 +19892,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A124,Concepts!A124:A665,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A123,Concepts!A123:A664,1), "")</f>
         <v>ex:photo/co2-photoreduction-measurement</v>
       </c>
       <c r="B124" s="12"/>
@@ -19922,7 +19903,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A125,Concepts!A125:A666,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A124,Concepts!A124:A665,1), "")</f>
         <v>ex:photo/blank-measurements</v>
       </c>
       <c r="B125" s="12"/>
@@ -19933,7 +19914,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A126,Concepts!A126:A667,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A125,Concepts!A125:A666,1), "")</f>
         <v>ex:photo/sample-pre-treatment</v>
       </c>
       <c r="B126" s="12"/>
@@ -19944,7 +19925,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A127,Concepts!A127:A668,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A126,Concepts!A126:A667,1), "")</f>
         <v>ex:photo/pressure-in-a-co2-photoreduction-experiment</v>
       </c>
       <c r="B127" s="12"/>
@@ -19955,7 +19936,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A128,Concepts!A128:A669,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A127,Concepts!A127:A668,1), "")</f>
         <v>ex:photo/temperature-in-a-co2-photoreduction-experiment</v>
       </c>
       <c r="B128" s="12"/>
@@ -19966,7 +19947,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A129,Concepts!A129:A670,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A128,Concepts!A128:A669,1), "")</f>
         <v>ex:photo/pressure-drop-in-a-co2-phoreduction-experiment</v>
       </c>
       <c r="B129" s="12"/>
@@ -19977,7 +19958,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A131,Concepts!A131:A671,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A130,Concepts!A130:A670,1), "")</f>
         <v>ex:photo/selected-light-source</v>
       </c>
       <c r="B130" s="12"/>
@@ -19988,7 +19969,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A132,Concepts!A132:A672,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A131,Concepts!A131:A671,1), "")</f>
         <v>ex:photo/light-intensity</v>
       </c>
       <c r="B131" s="12"/>
@@ -19999,7 +19980,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A133,Concepts!A133:A673,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A132,Concepts!A132:A672,1), "")</f>
         <v>ex:photo/total-duration-of-experiment</v>
       </c>
       <c r="B132" s="12"/>
@@ -20010,7 +19991,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A134,Concepts!A134:A674,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A133,Concepts!A133:A673,1), "")</f>
         <v>ex:photo/purging-time</v>
       </c>
       <c r="B133" s="12"/>
@@ -20021,7 +20002,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A135,Concepts!A135:A675,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A134,Concepts!A134:A674,1), "")</f>
         <v>ex:photo/irradiation-time</v>
       </c>
       <c r="B134" s="12"/>
@@ -20032,7 +20013,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A136,Concepts!A136:A676,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A135,Concepts!A135:A675,1), "")</f>
         <v>ex:photo/sampling-intervals</v>
       </c>
       <c r="B135" s="12"/>
@@ -20043,7 +20024,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A137,Concepts!A137:A677,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A136,Concepts!A136:A676,1), "")</f>
         <v>ex:photo/form-of-photocatalyst</v>
       </c>
       <c r="B136" s="12"/>
@@ -20054,7 +20035,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A138,Concepts!A138:A678,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A137,Concepts!A137:A677,1), "")</f>
         <v>ex:photo/powdered-photocatalyst</v>
       </c>
       <c r="B137" s="12"/>
@@ -20065,7 +20046,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A139,Concepts!A139:A679,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A138,Concepts!A138:A678,1), "")</f>
         <v>ex:photo/mass-of-powder-used</v>
       </c>
       <c r="B138" s="12"/>
@@ -20076,7 +20057,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A140,Concepts!A140:A680,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A139,Concepts!A139:A679,1), "")</f>
         <v>ex:photo/thin-film</v>
       </c>
       <c r="B139" s="12"/>
@@ -20087,7 +20068,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A141,Concepts!A141:A681,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A140,Concepts!A140:A680,1), "")</f>
         <v>ex:photo/deposition-technique</v>
       </c>
       <c r="B140" s="12"/>
@@ -20098,7 +20079,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A142,Concepts!A142:A682,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A141,Concepts!A141:A681,1), "")</f>
         <v>ex:photo/doctor-blading</v>
       </c>
       <c r="B141" s="12"/>
@@ -20109,7 +20090,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A143,Concepts!A143:A683,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A142,Concepts!A142:A682,1), "")</f>
         <v>ex:photo/spin-coating</v>
       </c>
       <c r="B142" s="12"/>
@@ -20120,7 +20101,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A144,Concepts!A144:A684,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A143,Concepts!A143:A683,1), "")</f>
         <v>ex:photo/spray-coating</v>
       </c>
       <c r="B143" s="12"/>
@@ -20131,7 +20112,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A145,Concepts!A145:A685,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A144,Concepts!A144:A684,1), "")</f>
         <v>ex:photo/substrate</v>
       </c>
       <c r="B144" s="12"/>
@@ -20142,7 +20123,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A146,Concepts!A146:A686,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A145,Concepts!A145:A685,1), "")</f>
         <v>ex:photo/material-of-substrate</v>
       </c>
       <c r="B145" s="12"/>
@@ -20153,7 +20134,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A147,Concepts!A147:A687,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A146,Concepts!A146:A686,1), "")</f>
         <v>ex:photo/glass-substrate</v>
       </c>
       <c r="B146" s="12"/>
@@ -20164,7 +20145,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A148,Concepts!A148:A688,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A147,Concepts!A147:A687,1), "")</f>
         <v>ex:photo/borosilicate-glass</v>
       </c>
       <c r="B147" s="12"/>
@@ -20175,7 +20156,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A149,Concepts!A149:A689,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A148,Concepts!A148:A688,1), "")</f>
         <v>ex:photo/quartz-glass</v>
       </c>
       <c r="B148" s="12"/>
@@ -20186,7 +20167,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A150,Concepts!A150:A690,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A149,Concepts!A149:A689,1), "")</f>
         <v>ex:photo/fluorine-doped-tin-oxide-coated-glass</v>
       </c>
       <c r="B149" s="12"/>
@@ -20197,7 +20178,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A151,Concepts!A151:A691,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A150,Concepts!A150:A690,1), "")</f>
         <v>ex:photo/indium-tin-oxide-coated-glass</v>
       </c>
       <c r="B150" s="12"/>
@@ -20208,7 +20189,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A152,Concepts!A152:A692,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A151,Concepts!A151:A691,1), "")</f>
         <v>ex:photo/ceramic-substrate</v>
       </c>
       <c r="B151" s="12"/>
@@ -20219,7 +20200,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A153,Concepts!A153:A693,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A152,Concepts!A152:A692,1), "")</f>
         <v>ex:photo/metallic-substrate</v>
       </c>
       <c r="B152" s="12"/>
@@ -20230,7 +20211,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A154,Concepts!A154:A694,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A153,Concepts!A153:A693,1), "")</f>
         <v>ex:photo/dimensions-of-substrate</v>
       </c>
       <c r="B153" s="12"/>
@@ -20241,7 +20222,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A155,Concepts!A155:A695,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A154,Concepts!A154:A694,1), "")</f>
         <v>ex:photo/deposited-film</v>
       </c>
       <c r="B154" s="12"/>
@@ -20252,7 +20233,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A156,Concepts!A156:A696,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A155,Concepts!A155:A695,1), "")</f>
         <v>ex:photo/dimensions-of-deposited-film</v>
       </c>
       <c r="B155" s="12"/>
@@ -20263,7 +20244,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A157,Concepts!A157:A697,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A156,Concepts!A156:A696,1), "")</f>
         <v>ex:photo/area-of-deposited-film</v>
       </c>
       <c r="B156" s="12"/>
@@ -20274,7 +20255,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A158,Concepts!A158:A698,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A157,Concepts!A157:A697,1), "")</f>
         <v>ex:photo/thickness-of-deposited-film</v>
       </c>
       <c r="B157" s="12"/>
@@ -20285,7 +20266,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A159,Concepts!A159:A699,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A158,Concepts!A158:A698,1), "")</f>
         <v>ex:photo/mass-of-deposited-film</v>
       </c>
       <c r="B158" s="12"/>
@@ -20296,7 +20277,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A160,Concepts!A160:A700,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A159,Concepts!A159:A699,1), "")</f>
         <v/>
       </c>
       <c r="B159" s="12"/>
@@ -20307,7 +20288,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A161,Concepts!A161:A701,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A160,Concepts!A160:A700,1), "")</f>
         <v/>
       </c>
       <c r="B160" s="12"/>
@@ -20318,7 +20299,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A162,Concepts!A162:A702,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A161,Concepts!A161:A701,1), "")</f>
         <v/>
       </c>
       <c r="B161" s="12"/>
@@ -20329,7 +20310,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A163,Concepts!A163:A703,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A162,Concepts!A162:A702,1), "")</f>
         <v/>
       </c>
       <c r="B162" s="12"/>
@@ -20340,7 +20321,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A164,Concepts!A164:A704,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A163,Concepts!A163:A703,1), "")</f>
         <v/>
       </c>
       <c r="B163" s="12"/>
@@ -20351,7 +20332,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A165,Concepts!A165:A705,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A164,Concepts!A164:A704,1), "")</f>
         <v/>
       </c>
       <c r="B164" s="12"/>
@@ -20362,7 +20343,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A166,Concepts!A166:A706,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A165,Concepts!A165:A705,1), "")</f>
         <v/>
       </c>
       <c r="B165" s="12"/>
@@ -20373,7 +20354,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A167,Concepts!A167:A707,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A166,Concepts!A166:A706,1), "")</f>
         <v/>
       </c>
       <c r="B166" s="12"/>
@@ -20384,7 +20365,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A168,Concepts!A168:A708,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A167,Concepts!A167:A707,1), "")</f>
         <v/>
       </c>
       <c r="B167" s="12"/>
@@ -20395,7 +20376,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A169,Concepts!A169:A709,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A168,Concepts!A168:A708,1), "")</f>
         <v/>
       </c>
       <c r="B168" s="12"/>
@@ -20406,7 +20387,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A170,Concepts!A170:A710,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A169,Concepts!A169:A709,1), "")</f>
         <v/>
       </c>
       <c r="B169" s="12"/>
@@ -20417,7 +20398,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A171,Concepts!A171:A711,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A170,Concepts!A170:A710,1), "")</f>
         <v/>
       </c>
       <c r="B170" s="12"/>
@@ -20428,7 +20409,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A172,Concepts!A172:A712,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A171,Concepts!A171:A711,1), "")</f>
         <v/>
       </c>
       <c r="B171" s="12"/>
@@ -20439,7 +20420,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A173,Concepts!A173:A713,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A172,Concepts!A172:A712,1), "")</f>
         <v/>
       </c>
       <c r="B172" s="12"/>
@@ -20450,7 +20431,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A174,Concepts!A174:A714,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A173,Concepts!A173:A713,1), "")</f>
         <v/>
       </c>
       <c r="B173" s="12"/>
@@ -20461,7 +20442,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A175,Concepts!A175:A715,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A174,Concepts!A174:A714,1), "")</f>
         <v/>
       </c>
       <c r="B174" s="12"/>
@@ -20472,7 +20453,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A176,Concepts!A176:A716,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A175,Concepts!A175:A715,1), "")</f>
         <v/>
       </c>
       <c r="B175" s="12"/>
@@ -20483,7 +20464,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A177,Concepts!A177:A717,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A176,Concepts!A176:A716,1), "")</f>
         <v/>
       </c>
       <c r="B176" s="12"/>
@@ -20494,7 +20475,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A178,Concepts!A178:A718,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A177,Concepts!A177:A717,1), "")</f>
         <v/>
       </c>
       <c r="B177" s="12"/>
@@ -20505,7 +20486,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A179,Concepts!A179:A719,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A178,Concepts!A178:A718,1), "")</f>
         <v/>
       </c>
       <c r="B178" s="12"/>
@@ -20516,7 +20497,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A180,Concepts!A180:A720,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A179,Concepts!A179:A719,1), "")</f>
         <v/>
       </c>
       <c r="B179" s="12"/>
@@ -20527,7 +20508,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A181,Concepts!A181:A721,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A180,Concepts!A180:A720,1), "")</f>
         <v/>
       </c>
       <c r="B180" s="12"/>
@@ -20538,7 +20519,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A182,Concepts!A182:A722,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A181,Concepts!A181:A721,1), "")</f>
         <v/>
       </c>
       <c r="B181" s="12"/>
@@ -20549,7 +20530,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A183,Concepts!A183:A723,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A182,Concepts!A182:A722,1), "")</f>
         <v/>
       </c>
       <c r="B182" s="12"/>
@@ -20560,7 +20541,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A184,Concepts!A184:A724,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A183,Concepts!A183:A723,1), "")</f>
         <v/>
       </c>
       <c r="B183" s="12"/>
@@ -20571,7 +20552,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A185,Concepts!A185:A725,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A184,Concepts!A184:A724,1), "")</f>
         <v/>
       </c>
       <c r="B184" s="12"/>
@@ -20582,7 +20563,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A186,Concepts!A186:A726,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A185,Concepts!A185:A725,1), "")</f>
         <v/>
       </c>
       <c r="B185" s="12"/>
@@ -20593,7 +20574,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A187,Concepts!A187:A727,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A186,Concepts!A186:A726,1), "")</f>
         <v/>
       </c>
       <c r="B186" s="12"/>
@@ -20604,7 +20585,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A188,Concepts!A188:A728,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A187,Concepts!A187:A727,1), "")</f>
         <v/>
       </c>
       <c r="B187" s="12"/>
@@ -20615,7 +20596,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A189,Concepts!A189:A729,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A188,Concepts!A188:A728,1), "")</f>
         <v/>
       </c>
       <c r="B188" s="12"/>
@@ -20626,7 +20607,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A190,Concepts!A190:A730,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A189,Concepts!A189:A729,1), "")</f>
         <v/>
       </c>
       <c r="B189" s="12"/>
@@ -20637,7 +20618,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A191,Concepts!A191:A731,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A190,Concepts!A190:A730,1), "")</f>
         <v/>
       </c>
       <c r="B190" s="12"/>
@@ -20648,7 +20629,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A192,Concepts!A192:A732,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A191,Concepts!A191:A731,1), "")</f>
         <v/>
       </c>
       <c r="B191" s="12"/>
@@ -20659,7 +20640,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A193,Concepts!A193:A733,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A192,Concepts!A192:A732,1), "")</f>
         <v/>
       </c>
       <c r="B192" s="12"/>
@@ -20670,7 +20651,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A194,Concepts!A194:A734,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A193,Concepts!A193:A733,1), "")</f>
         <v/>
       </c>
       <c r="B193" s="12"/>
@@ -20681,7 +20662,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A195,Concepts!A195:A735,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A194,Concepts!A194:A734,1), "")</f>
         <v/>
       </c>
       <c r="B194" s="12"/>
@@ -20692,7 +20673,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A196,Concepts!A196:A736,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A195,Concepts!A195:A735,1), "")</f>
         <v/>
       </c>
       <c r="B195" s="12"/>
@@ -20703,7 +20684,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A197,Concepts!A197:A737,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A196,Concepts!A196:A736,1), "")</f>
         <v/>
       </c>
       <c r="B196" s="12"/>
@@ -20714,7 +20695,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A198,Concepts!A198:A738,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A197,Concepts!A197:A737,1), "")</f>
         <v/>
       </c>
       <c r="B197" s="12"/>
@@ -20725,7 +20706,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A199,Concepts!A199:A739,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A198,Concepts!A198:A738,1), "")</f>
         <v/>
       </c>
       <c r="B198" s="12"/>
@@ -20736,7 +20717,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A200,Concepts!A200:A740,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A199,Concepts!A199:A739,1), "")</f>
         <v/>
       </c>
       <c r="B199" s="12"/>
@@ -20747,7 +20728,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A201,Concepts!A201:A741,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A200,Concepts!A200:A740,1), "")</f>
         <v/>
       </c>
       <c r="B200" s="12"/>
@@ -20758,7 +20739,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A202,Concepts!A202:A742,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A201,Concepts!A201:A741,1), "")</f>
         <v/>
       </c>
       <c r="B201" s="12"/>
@@ -20769,7 +20750,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A203,Concepts!A203:A743,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A202,Concepts!A202:A742,1), "")</f>
         <v/>
       </c>
       <c r="B202" s="12"/>
@@ -20780,7 +20761,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A204,Concepts!A204:A744,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A203,Concepts!A203:A743,1), "")</f>
         <v/>
       </c>
       <c r="B203" s="12"/>
@@ -20791,7 +20772,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A205,Concepts!A205:A745,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A204,Concepts!A204:A744,1), "")</f>
         <v/>
       </c>
       <c r="B204" s="12"/>
@@ -20802,7 +20783,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A206,Concepts!A206:A746,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A205,Concepts!A205:A745,1), "")</f>
         <v/>
       </c>
       <c r="B205" s="12"/>
@@ -20813,7 +20794,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A207,Concepts!A207:A747,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A206,Concepts!A206:A746,1), "")</f>
         <v/>
       </c>
       <c r="B206" s="12"/>
@@ -20824,7 +20805,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A208,Concepts!A208:A748,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A207,Concepts!A207:A747,1), "")</f>
         <v/>
       </c>
       <c r="B207" s="12"/>
@@ -20835,7 +20816,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A209,Concepts!A209:A749,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A208,Concepts!A208:A748,1), "")</f>
         <v/>
       </c>
       <c r="B208" s="12"/>
@@ -20846,7 +20827,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A210,Concepts!A210:A750,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A209,Concepts!A209:A749,1), "")</f>
         <v/>
       </c>
       <c r="B209" s="12"/>
@@ -20857,7 +20838,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A211,Concepts!A211:A751,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A210,Concepts!A210:A750,1), "")</f>
         <v/>
       </c>
       <c r="B210" s="12"/>
@@ -20868,7 +20849,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A212,Concepts!A212:A752,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A211,Concepts!A211:A751,1), "")</f>
         <v/>
       </c>
       <c r="B211" s="12"/>
@@ -20879,7 +20860,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A213,Concepts!A213:A753,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A212,Concepts!A212:A752,1), "")</f>
         <v/>
       </c>
       <c r="B212" s="12"/>
@@ -20890,7 +20871,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A214,Concepts!A214:A754,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A213,Concepts!A213:A753,1), "")</f>
         <v/>
       </c>
       <c r="B213" s="12"/>
@@ -20901,7 +20882,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A215,Concepts!A215:A755,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A214,Concepts!A214:A754,1), "")</f>
         <v/>
       </c>
       <c r="B214" s="12"/>
@@ -20912,7 +20893,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A216,Concepts!A216:A756,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A215,Concepts!A215:A755,1), "")</f>
         <v/>
       </c>
       <c r="B215" s="12"/>
@@ -20923,7 +20904,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A217,Concepts!A217:A757,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A216,Concepts!A216:A756,1), "")</f>
         <v/>
       </c>
       <c r="B216" s="12"/>
@@ -20934,7 +20915,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A218,Concepts!A218:A758,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A217,Concepts!A217:A757,1), "")</f>
         <v/>
       </c>
       <c r="B217" s="12"/>
@@ -20945,7 +20926,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A219,Concepts!A219:A759,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A218,Concepts!A218:A758,1), "")</f>
         <v/>
       </c>
       <c r="B218" s="12"/>
@@ -20956,7 +20937,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A220,Concepts!A220:A760,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A219,Concepts!A219:A759,1), "")</f>
         <v/>
       </c>
       <c r="B219" s="12"/>
@@ -20967,7 +20948,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A221,Concepts!A221:A761,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A220,Concepts!A220:A760,1), "")</f>
         <v/>
       </c>
       <c r="B220" s="12"/>
@@ -20978,7 +20959,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A222,Concepts!A222:A762,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A221,Concepts!A221:A761,1), "")</f>
         <v/>
       </c>
       <c r="B221" s="12"/>
@@ -20989,7 +20970,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A223,Concepts!A223:A763,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A222,Concepts!A222:A762,1), "")</f>
         <v/>
       </c>
       <c r="B222" s="12"/>
@@ -21000,7 +20981,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A224,Concepts!A224:A764,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A223,Concepts!A223:A763,1), "")</f>
         <v/>
       </c>
       <c r="B223" s="12"/>
@@ -21011,7 +20992,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A225,Concepts!A225:A765,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A224,Concepts!A224:A764,1), "")</f>
         <v/>
       </c>
       <c r="B224" s="12"/>
@@ -21022,7 +21003,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A226,Concepts!A226:A766,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A225,Concepts!A225:A765,1), "")</f>
         <v/>
       </c>
       <c r="B225" s="12"/>
@@ -21033,7 +21014,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A227,Concepts!A227:A767,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A226,Concepts!A226:A766,1), "")</f>
         <v/>
       </c>
       <c r="B226" s="12"/>
@@ -21044,7 +21025,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A228,Concepts!A228:A768,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A227,Concepts!A227:A767,1), "")</f>
         <v/>
       </c>
       <c r="B227" s="12"/>
@@ -21055,7 +21036,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A229,Concepts!A229:A769,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A228,Concepts!A228:A768,1), "")</f>
         <v/>
       </c>
       <c r="B228" s="12"/>
@@ -21066,7 +21047,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A230,Concepts!A230:A770,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A229,Concepts!A229:A769,1), "")</f>
         <v/>
       </c>
       <c r="B229" s="12"/>
@@ -21077,7 +21058,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A231,Concepts!A231:A771,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A230,Concepts!A230:A770,1), "")</f>
         <v/>
       </c>
       <c r="B230" s="12"/>
@@ -21088,7 +21069,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A232,Concepts!A232:A772,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A231,Concepts!A231:A771,1), "")</f>
         <v/>
       </c>
       <c r="B231" s="12"/>
@@ -21099,7 +21080,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A233,Concepts!A233:A773,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A232,Concepts!A232:A772,1), "")</f>
         <v/>
       </c>
       <c r="B232" s="12"/>
@@ -21110,7 +21091,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A234,Concepts!A234:A774,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A233,Concepts!A233:A773,1), "")</f>
         <v/>
       </c>
       <c r="B233" s="12"/>
@@ -21121,7 +21102,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A235,Concepts!A235:A775,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A234,Concepts!A234:A774,1), "")</f>
         <v/>
       </c>
       <c r="B234" s="12"/>
@@ -21132,7 +21113,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A236,Concepts!A236:A776,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A235,Concepts!A235:A775,1), "")</f>
         <v/>
       </c>
       <c r="B235" s="12"/>
@@ -21143,7 +21124,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A237,Concepts!A237:A777,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A236,Concepts!A236:A776,1), "")</f>
         <v/>
       </c>
       <c r="B236" s="12"/>
@@ -21154,7 +21135,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A238,Concepts!A238:A778,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A237,Concepts!A237:A777,1), "")</f>
         <v/>
       </c>
       <c r="B237" s="12"/>
@@ -21165,7 +21146,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A239,Concepts!A239:A779,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A238,Concepts!A238:A778,1), "")</f>
         <v/>
       </c>
       <c r="B238" s="12"/>
@@ -21176,7 +21157,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A240,Concepts!A240:A780,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A239,Concepts!A239:A779,1), "")</f>
         <v/>
       </c>
       <c r="B239" s="12"/>
@@ -21187,7 +21168,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A241,Concepts!A241:A781,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A240,Concepts!A240:A780,1), "")</f>
         <v/>
       </c>
       <c r="B240" s="12"/>
@@ -21198,7 +21179,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A242,Concepts!A242:A782,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A241,Concepts!A241:A781,1), "")</f>
         <v/>
       </c>
       <c r="B241" s="12"/>
@@ -21209,7 +21190,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A243,Concepts!A243:A783,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A242,Concepts!A242:A782,1), "")</f>
         <v/>
       </c>
       <c r="B242" s="12"/>
@@ -21220,7 +21201,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A244,Concepts!A244:A784,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A243,Concepts!A243:A783,1), "")</f>
         <v/>
       </c>
       <c r="B243" s="12"/>
@@ -21231,7 +21212,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A245,Concepts!A245:A785,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A244,Concepts!A244:A784,1), "")</f>
         <v/>
       </c>
       <c r="B244" s="12"/>
@@ -21242,7 +21223,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A246,Concepts!A246:A786,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A245,Concepts!A245:A785,1), "")</f>
         <v/>
       </c>
       <c r="B245" s="12"/>
@@ -21253,7 +21234,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A247,Concepts!A247:A787,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A246,Concepts!A246:A786,1), "")</f>
         <v/>
       </c>
       <c r="B246" s="12"/>
@@ -21264,7 +21245,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A248,Concepts!A248:A788,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A247,Concepts!A247:A787,1), "")</f>
         <v/>
       </c>
       <c r="B247" s="12"/>
@@ -21275,7 +21256,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A249,Concepts!A249:A789,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A248,Concepts!A248:A788,1), "")</f>
         <v/>
       </c>
       <c r="B248" s="12"/>
@@ -21286,7 +21267,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A250,Concepts!A250:A790,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A249,Concepts!A249:A789,1), "")</f>
         <v/>
       </c>
       <c r="B249" s="12"/>
@@ -21297,7 +21278,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A251,Concepts!A251:A791,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A250,Concepts!A250:A790,1), "")</f>
         <v/>
       </c>
       <c r="B250" s="12"/>
@@ -21308,7 +21289,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A252,Concepts!A252:A792,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A251,Concepts!A251:A791,1), "")</f>
         <v/>
       </c>
       <c r="B251" s="12"/>
@@ -21319,7 +21300,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A253,Concepts!A253:A793,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A252,Concepts!A252:A792,1), "")</f>
         <v/>
       </c>
       <c r="B252" s="12"/>
@@ -21330,7 +21311,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A254,Concepts!A254:A794,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A253,Concepts!A253:A793,1), "")</f>
         <v/>
       </c>
       <c r="B253" s="12"/>
@@ -21341,7 +21322,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A255,Concepts!A255:A795,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A254,Concepts!A254:A794,1), "")</f>
         <v/>
       </c>
       <c r="B254" s="12"/>
@@ -21352,7 +21333,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A256,Concepts!A256:A796,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A255,Concepts!A255:A795,1), "")</f>
         <v/>
       </c>
       <c r="B255" s="12"/>
@@ -21363,7 +21344,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A257,Concepts!A257:A797,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A256,Concepts!A256:A796,1), "")</f>
         <v/>
       </c>
       <c r="B256" s="12"/>
@@ -21374,7 +21355,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A258,Concepts!A258:A798,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A257,Concepts!A257:A797,1), "")</f>
         <v/>
       </c>
       <c r="B257" s="12"/>
@@ -21385,7 +21366,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A259,Concepts!A259:A799,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A258,Concepts!A258:A798,1), "")</f>
         <v/>
       </c>
       <c r="B258" s="12"/>
@@ -21396,7 +21377,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A260,Concepts!A260:A800,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A259,Concepts!A259:A799,1), "")</f>
         <v/>
       </c>
       <c r="B259" s="12"/>
@@ -21407,7 +21388,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A261,Concepts!A261:A801,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A260,Concepts!A260:A800,1), "")</f>
         <v/>
       </c>
       <c r="B260" s="12"/>
@@ -21418,7 +21399,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A262,Concepts!A262:A802,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A261,Concepts!A261:A801,1), "")</f>
         <v/>
       </c>
       <c r="B261" s="12"/>
@@ -21429,7 +21410,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A263,Concepts!A263:A803,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A262,Concepts!A262:A802,1), "")</f>
         <v/>
       </c>
       <c r="B262" s="12"/>
@@ -21440,7 +21421,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A264,Concepts!A264:A804,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A263,Concepts!A263:A803,1), "")</f>
         <v/>
       </c>
       <c r="B263" s="12"/>
@@ -21451,7 +21432,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A265,Concepts!A265:A805,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A264,Concepts!A264:A804,1), "")</f>
         <v/>
       </c>
       <c r="B264" s="12"/>
@@ -21462,7 +21443,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A266,Concepts!A266:A806,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A265,Concepts!A265:A805,1), "")</f>
         <v/>
       </c>
       <c r="B265" s="12"/>
@@ -21473,7 +21454,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A267,Concepts!A267:A807,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A266,Concepts!A266:A806,1), "")</f>
         <v/>
       </c>
       <c r="B266" s="12"/>
@@ -21484,7 +21465,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A268,Concepts!A268:A808,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A267,Concepts!A267:A807,1), "")</f>
         <v/>
       </c>
       <c r="B267" s="12"/>
@@ -21495,7 +21476,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A269,Concepts!A269:A809,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A268,Concepts!A268:A808,1), "")</f>
         <v/>
       </c>
       <c r="B268" s="12"/>
@@ -21506,7 +21487,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A270,Concepts!A270:A810,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A269,Concepts!A269:A809,1), "")</f>
         <v/>
       </c>
       <c r="B269" s="12"/>
@@ -21517,7 +21498,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A271,Concepts!A271:A811,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A270,Concepts!A270:A810,1), "")</f>
         <v/>
       </c>
       <c r="B270" s="12"/>
@@ -21528,7 +21509,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A272,Concepts!A272:A812,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A271,Concepts!A271:A811,1), "")</f>
         <v/>
       </c>
       <c r="B271" s="12"/>
@@ -21539,7 +21520,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A273,Concepts!A273:A813,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A272,Concepts!A272:A812,1), "")</f>
         <v/>
       </c>
       <c r="B272" s="12"/>
@@ -21550,7 +21531,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A274,Concepts!A274:A814,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A273,Concepts!A273:A813,1), "")</f>
         <v/>
       </c>
       <c r="B273" s="12"/>
@@ -21561,7 +21542,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A275,Concepts!A275:A815,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A274,Concepts!A274:A814,1), "")</f>
         <v/>
       </c>
       <c r="B274" s="12"/>
@@ -21572,7 +21553,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A276,Concepts!A276:A816,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A275,Concepts!A275:A815,1), "")</f>
         <v/>
       </c>
       <c r="B275" s="12"/>
@@ -21583,7 +21564,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A277,Concepts!A277:A817,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A276,Concepts!A276:A816,1), "")</f>
         <v/>
       </c>
       <c r="B276" s="12"/>
@@ -21594,7 +21575,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A278,Concepts!A278:A818,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A277,Concepts!A277:A817,1), "")</f>
         <v/>
       </c>
       <c r="B277" s="12"/>
@@ -21605,7 +21586,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A279,Concepts!A279:A819,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A278,Concepts!A278:A818,1), "")</f>
         <v/>
       </c>
       <c r="B278" s="12"/>
@@ -21616,7 +21597,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A280,Concepts!A280:A820,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A279,Concepts!A279:A819,1), "")</f>
         <v/>
       </c>
       <c r="B279" s="12"/>
@@ -21627,7 +21608,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A281,Concepts!A281:A821,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A280,Concepts!A280:A820,1), "")</f>
         <v/>
       </c>
       <c r="B280" s="12"/>
@@ -21638,7 +21619,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A282,Concepts!A282:A822,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A281,Concepts!A281:A821,1), "")</f>
         <v/>
       </c>
       <c r="B281" s="12"/>
@@ -21649,7 +21630,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A283,Concepts!A283:A823,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A282,Concepts!A282:A822,1), "")</f>
         <v/>
       </c>
       <c r="B282" s="12"/>
@@ -21660,7 +21641,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A284,Concepts!A284:A824,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A283,Concepts!A283:A823,1), "")</f>
         <v/>
       </c>
       <c r="B283" s="12"/>
@@ -21671,7 +21652,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A285,Concepts!A285:A825,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A284,Concepts!A284:A824,1), "")</f>
         <v/>
       </c>
       <c r="B284" s="12"/>
@@ -21682,7 +21663,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A286,Concepts!A286:A826,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A285,Concepts!A285:A825,1), "")</f>
         <v/>
       </c>
       <c r="B285" s="12"/>
@@ -21693,7 +21674,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A287,Concepts!A287:A827,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A286,Concepts!A286:A826,1), "")</f>
         <v/>
       </c>
       <c r="B286" s="12"/>
@@ -21704,7 +21685,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A288,Concepts!A288:A828,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A287,Concepts!A287:A827,1), "")</f>
         <v/>
       </c>
       <c r="B287" s="12"/>
@@ -21715,7 +21696,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A289,Concepts!A289:A829,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A288,Concepts!A288:A828,1), "")</f>
         <v/>
       </c>
       <c r="B288" s="12"/>
@@ -21726,7 +21707,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A290,Concepts!A290:A830,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A289,Concepts!A289:A829,1), "")</f>
         <v/>
       </c>
       <c r="B289" s="12"/>
@@ -21737,7 +21718,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A291,Concepts!A291:A831,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A290,Concepts!A290:A830,1), "")</f>
         <v/>
       </c>
       <c r="B290" s="12"/>
@@ -21748,7 +21729,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A292,Concepts!A292:A832,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A291,Concepts!A291:A831,1), "")</f>
         <v/>
       </c>
       <c r="B291" s="12"/>
@@ -21759,7 +21740,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A293,Concepts!A293:A833,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A292,Concepts!A292:A832,1), "")</f>
         <v/>
       </c>
       <c r="B292" s="12"/>
@@ -21770,7 +21751,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A294,Concepts!A294:A834,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A293,Concepts!A293:A833,1), "")</f>
         <v/>
       </c>
       <c r="B293" s="12"/>
@@ -21781,7 +21762,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A295,Concepts!A295:A835,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A294,Concepts!A294:A834,1), "")</f>
         <v/>
       </c>
       <c r="B294" s="12"/>
@@ -21792,7 +21773,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A296,Concepts!A296:A836,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A295,Concepts!A295:A835,1), "")</f>
         <v/>
       </c>
       <c r="B295" s="12"/>
@@ -21803,7 +21784,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A297,Concepts!A297:A837,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A296,Concepts!A296:A836,1), "")</f>
         <v/>
       </c>
       <c r="B296" s="12"/>
@@ -21814,7 +21795,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A298,Concepts!A298:A838,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A297,Concepts!A297:A837,1), "")</f>
         <v/>
       </c>
       <c r="B297" s="12"/>
@@ -21825,7 +21806,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A299,Concepts!A299:A839,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A298,Concepts!A298:A838,1), "")</f>
         <v/>
       </c>
       <c r="B298" s="12"/>
@@ -21836,7 +21817,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A300,Concepts!A300:A840,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A299,Concepts!A299:A839,1), "")</f>
         <v/>
       </c>
       <c r="B299" s="12"/>
@@ -21847,7 +21828,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A301,Concepts!A301:A841,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A300,Concepts!A300:A840,1), "")</f>
         <v/>
       </c>
       <c r="B300" s="12"/>
@@ -21858,7 +21839,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A302,Concepts!A302:A842,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A301,Concepts!A301:A841,1), "")</f>
         <v/>
       </c>
       <c r="B301" s="12"/>
@@ -21869,7 +21850,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A303,Concepts!A303:A843,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A302,Concepts!A302:A842,1), "")</f>
         <v/>
       </c>
       <c r="B302" s="12"/>
@@ -21880,7 +21861,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A304,Concepts!A304:A844,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A303,Concepts!A303:A843,1), "")</f>
         <v/>
       </c>
       <c r="B303" s="12"/>
@@ -21891,7 +21872,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A305,Concepts!A305:A845,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A304,Concepts!A304:A844,1), "")</f>
         <v/>
       </c>
       <c r="B304" s="12"/>
@@ -21902,7 +21883,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A306,Concepts!A306:A846,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A305,Concepts!A305:A845,1), "")</f>
         <v/>
       </c>
       <c r="B305" s="12"/>
@@ -21913,7 +21894,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A307,Concepts!A307:A847,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A306,Concepts!A306:A846,1), "")</f>
         <v/>
       </c>
       <c r="B306" s="12"/>
@@ -21924,7 +21905,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A308,Concepts!A308:A848,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A307,Concepts!A307:A847,1), "")</f>
         <v/>
       </c>
       <c r="B307" s="12"/>
@@ -21935,7 +21916,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A309,Concepts!A309:A849,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A308,Concepts!A308:A848,1), "")</f>
         <v/>
       </c>
       <c r="B308" s="12"/>
@@ -21946,7 +21927,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A310,Concepts!A310:A850,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A309,Concepts!A309:A849,1), "")</f>
         <v/>
       </c>
       <c r="B309" s="12"/>
@@ -21957,7 +21938,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A311,Concepts!A311:A851,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A310,Concepts!A310:A850,1), "")</f>
         <v/>
       </c>
       <c r="B310" s="12"/>
@@ -21968,7 +21949,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A312,Concepts!A312:A852,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A311,Concepts!A311:A851,1), "")</f>
         <v/>
       </c>
       <c r="B311" s="12"/>
@@ -21979,7 +21960,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A313,Concepts!A313:A853,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A312,Concepts!A312:A852,1), "")</f>
         <v/>
       </c>
       <c r="B312" s="12"/>
@@ -21990,7 +21971,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A314,Concepts!A314:A854,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A313,Concepts!A313:A853,1), "")</f>
         <v/>
       </c>
       <c r="B313" s="12"/>
@@ -22001,7 +21982,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A315,Concepts!A315:A855,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A314,Concepts!A314:A854,1), "")</f>
         <v/>
       </c>
       <c r="B314" s="12"/>
@@ -22012,7 +21993,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A316,Concepts!A316:A856,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A315,Concepts!A315:A855,1), "")</f>
         <v/>
       </c>
       <c r="B315" s="12"/>
@@ -22023,7 +22004,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A317,Concepts!A317:A857,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A316,Concepts!A316:A856,1), "")</f>
         <v/>
       </c>
       <c r="B316" s="12"/>
@@ -22034,7 +22015,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A318,Concepts!A318:A858,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A317,Concepts!A317:A857,1), "")</f>
         <v/>
       </c>
       <c r="B317" s="12"/>
@@ -22045,7 +22026,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A319,Concepts!A319:A859,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A318,Concepts!A318:A858,1), "")</f>
         <v/>
       </c>
       <c r="B318" s="12"/>
@@ -22056,7 +22037,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A320,Concepts!A320:A860,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A319,Concepts!A319:A859,1), "")</f>
         <v/>
       </c>
       <c r="B319" s="12"/>
@@ -22067,7 +22048,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A321,Concepts!A321:A861,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A320,Concepts!A320:A860,1), "")</f>
         <v/>
       </c>
       <c r="B320" s="12"/>
@@ -22078,7 +22059,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A322,Concepts!A322:A862,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A321,Concepts!A321:A861,1), "")</f>
         <v/>
       </c>
       <c r="B321" s="12"/>
@@ -22089,7 +22070,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A323,Concepts!A323:A863,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A322,Concepts!A322:A862,1), "")</f>
         <v/>
       </c>
       <c r="B322" s="12"/>
@@ -22100,7 +22081,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A324,Concepts!A324:A864,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A323,Concepts!A323:A863,1), "")</f>
         <v/>
       </c>
       <c r="B323" s="12"/>
@@ -22111,7 +22092,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A325,Concepts!A325:A865,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A324,Concepts!A324:A864,1), "")</f>
         <v/>
       </c>
       <c r="B324" s="12"/>
@@ -22122,7 +22103,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A326,Concepts!A326:A866,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A325,Concepts!A325:A865,1), "")</f>
         <v/>
       </c>
       <c r="B325" s="12"/>
@@ -22133,7 +22114,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A327,Concepts!A327:A867,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A326,Concepts!A326:A866,1), "")</f>
         <v/>
       </c>
       <c r="B326" s="12"/>
@@ -22144,7 +22125,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A328,Concepts!A328:A868,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A327,Concepts!A327:A867,1), "")</f>
         <v/>
       </c>
       <c r="B327" s="12"/>
@@ -22155,7 +22136,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A329,Concepts!A329:A869,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A328,Concepts!A328:A868,1), "")</f>
         <v/>
       </c>
       <c r="B328" s="12"/>
@@ -22166,7 +22147,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A330,Concepts!A330:A870,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A329,Concepts!A329:A869,1), "")</f>
         <v/>
       </c>
       <c r="B329" s="12"/>
@@ -22177,7 +22158,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A331,Concepts!A331:A871,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A330,Concepts!A330:A870,1), "")</f>
         <v/>
       </c>
       <c r="B330" s="12"/>
@@ -22188,7 +22169,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A332,Concepts!A332:A872,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A331,Concepts!A331:A871,1), "")</f>
         <v/>
       </c>
       <c r="B331" s="12"/>
@@ -22199,7 +22180,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A333,Concepts!A333:A873,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A332,Concepts!A332:A872,1), "")</f>
         <v/>
       </c>
       <c r="B332" s="12"/>
@@ -22210,7 +22191,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A334,Concepts!A334:A874,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A333,Concepts!A333:A873,1), "")</f>
         <v/>
       </c>
       <c r="B333" s="12"/>
@@ -22221,7 +22202,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A335,Concepts!A335:A875,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A334,Concepts!A334:A874,1), "")</f>
         <v/>
       </c>
       <c r="B334" s="12"/>
@@ -22232,7 +22213,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A336,Concepts!A336:A876,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A335,Concepts!A335:A875,1), "")</f>
         <v/>
       </c>
       <c r="B335" s="12"/>
@@ -22243,7 +22224,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A337,Concepts!A337:A877,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A336,Concepts!A336:A876,1), "")</f>
         <v/>
       </c>
       <c r="B336" s="12"/>
@@ -22254,7 +22235,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A338,Concepts!A338:A878,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A337,Concepts!A337:A877,1), "")</f>
         <v/>
       </c>
       <c r="B337" s="12"/>
@@ -22265,7 +22246,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A339,Concepts!A339:A879,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A338,Concepts!A338:A878,1), "")</f>
         <v/>
       </c>
       <c r="B338" s="12"/>
@@ -22276,7 +22257,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A340,Concepts!A340:A880,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A339,Concepts!A339:A879,1), "")</f>
         <v/>
       </c>
       <c r="B339" s="12"/>
@@ -22287,7 +22268,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A341,Concepts!A341:A881,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A340,Concepts!A340:A880,1), "")</f>
         <v/>
       </c>
       <c r="B340" s="12"/>
@@ -22298,7 +22279,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A342,Concepts!A342:A882,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A341,Concepts!A341:A881,1), "")</f>
         <v/>
       </c>
       <c r="B341" s="12"/>
@@ -22309,7 +22290,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A343,Concepts!A343:A883,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A342,Concepts!A342:A882,1), "")</f>
         <v/>
       </c>
       <c r="B342" s="12"/>
@@ -22320,7 +22301,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A344,Concepts!A344:A884,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A343,Concepts!A343:A883,1), "")</f>
         <v/>
       </c>
       <c r="B343" s="12"/>
@@ -22331,7 +22312,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A345,Concepts!A345:A885,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A344,Concepts!A344:A884,1), "")</f>
         <v/>
       </c>
       <c r="B344" s="12"/>
@@ -22342,7 +22323,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A346,Concepts!A346:A886,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A345,Concepts!A345:A885,1), "")</f>
         <v/>
       </c>
       <c r="B345" s="12"/>
@@ -22353,7 +22334,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A347,Concepts!A347:A887,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A346,Concepts!A346:A886,1), "")</f>
         <v/>
       </c>
       <c r="B346" s="12"/>
@@ -22364,7 +22345,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A348,Concepts!A348:A888,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A347,Concepts!A347:A887,1), "")</f>
         <v/>
       </c>
       <c r="B347" s="12"/>
@@ -22375,7 +22356,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A349,Concepts!A349:A889,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A348,Concepts!A348:A888,1), "")</f>
         <v/>
       </c>
       <c r="B348" s="12"/>
@@ -22386,7 +22367,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A350,Concepts!A350:A890,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A349,Concepts!A349:A889,1), "")</f>
         <v/>
       </c>
       <c r="B349" s="12"/>
@@ -22397,7 +22378,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A351,Concepts!A351:A891,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A350,Concepts!A350:A890,1), "")</f>
         <v/>
       </c>
       <c r="B350" s="12"/>
@@ -22408,7 +22389,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A352,Concepts!A352:A892,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A351,Concepts!A351:A891,1), "")</f>
         <v/>
       </c>
       <c r="B351" s="12"/>
@@ -22419,7 +22400,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A353,Concepts!A353:A893,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A352,Concepts!A352:A892,1), "")</f>
         <v/>
       </c>
       <c r="B352" s="12"/>
@@ -22430,7 +22411,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A354,Concepts!A354:A894,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A353,Concepts!A353:A893,1), "")</f>
         <v/>
       </c>
       <c r="B353" s="12"/>
@@ -22441,7 +22422,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A355,Concepts!A355:A895,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A354,Concepts!A354:A894,1), "")</f>
         <v/>
       </c>
       <c r="B354" s="12"/>
@@ -22452,7 +22433,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A356,Concepts!A356:A896,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A355,Concepts!A355:A895,1), "")</f>
         <v/>
       </c>
       <c r="B355" s="12"/>
@@ -22463,7 +22444,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A357,Concepts!A357:A897,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A356,Concepts!A356:A896,1), "")</f>
         <v/>
       </c>
       <c r="B356" s="12"/>
@@ -22474,7 +22455,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A358,Concepts!A358:A898,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A357,Concepts!A357:A897,1), "")</f>
         <v/>
       </c>
       <c r="B357" s="12"/>
@@ -22485,7 +22466,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A359,Concepts!A359:A899,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A358,Concepts!A358:A898,1), "")</f>
         <v/>
       </c>
       <c r="B358" s="12"/>
@@ -22496,7 +22477,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A360,Concepts!A360:A900,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A359,Concepts!A359:A899,1), "")</f>
         <v/>
       </c>
       <c r="B359" s="12"/>
@@ -22507,7 +22488,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A361,Concepts!A361:A901,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A360,Concepts!A360:A900,1), "")</f>
         <v/>
       </c>
       <c r="B360" s="12"/>
@@ -22518,7 +22499,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A362,Concepts!A362:A902,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A361,Concepts!A361:A901,1), "")</f>
         <v/>
       </c>
       <c r="B361" s="12"/>
@@ -22529,7 +22510,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A363,Concepts!A363:A903,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A362,Concepts!A362:A902,1), "")</f>
         <v/>
       </c>
       <c r="B362" s="12"/>
@@ -22540,7 +22521,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A364,Concepts!A364:A904,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A363,Concepts!A363:A903,1), "")</f>
         <v/>
       </c>
       <c r="B363" s="12"/>
@@ -22551,7 +22532,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A365,Concepts!A365:A905,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A364,Concepts!A364:A904,1), "")</f>
         <v/>
       </c>
       <c r="B364" s="12"/>
@@ -22562,7 +22543,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A366,Concepts!A366:A906,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A365,Concepts!A365:A905,1), "")</f>
         <v/>
       </c>
       <c r="B365" s="12"/>
@@ -22573,7 +22554,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A367,Concepts!A367:A907,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A366,Concepts!A366:A906,1), "")</f>
         <v/>
       </c>
       <c r="B366" s="12"/>
@@ -22584,7 +22565,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A368,Concepts!A368:A908,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A367,Concepts!A367:A907,1), "")</f>
         <v/>
       </c>
       <c r="B367" s="12"/>
@@ -22595,7 +22576,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A369,Concepts!A369:A909,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A368,Concepts!A368:A908,1), "")</f>
         <v/>
       </c>
       <c r="B368" s="12"/>
@@ -22606,7 +22587,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A370,Concepts!A370:A910,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A369,Concepts!A369:A909,1), "")</f>
         <v/>
       </c>
       <c r="B369" s="12"/>
@@ -22617,7 +22598,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A371,Concepts!A371:A911,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A370,Concepts!A370:A910,1), "")</f>
         <v/>
       </c>
       <c r="B370" s="12"/>
@@ -22628,7 +22609,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A372,Concepts!A372:A912,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A371,Concepts!A371:A911,1), "")</f>
         <v/>
       </c>
       <c r="B371" s="12"/>
@@ -22639,7 +22620,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A373,Concepts!A373:A913,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A372,Concepts!A372:A912,1), "")</f>
         <v/>
       </c>
       <c r="B372" s="12"/>
@@ -22650,7 +22631,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A374,Concepts!A374:A914,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A373,Concepts!A373:A913,1), "")</f>
         <v/>
       </c>
       <c r="B373" s="12"/>
@@ -22661,7 +22642,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A375,Concepts!A375:A915,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A374,Concepts!A374:A914,1), "")</f>
         <v/>
       </c>
       <c r="B374" s="12"/>
@@ -22672,7 +22653,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A376,Concepts!A376:A916,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A375,Concepts!A375:A915,1), "")</f>
         <v/>
       </c>
       <c r="B375" s="12"/>
@@ -22683,7 +22664,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A377,Concepts!A377:A917,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A376,Concepts!A376:A916,1), "")</f>
         <v/>
       </c>
       <c r="B376" s="12"/>
@@ -22694,7 +22675,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A378,Concepts!A378:A918,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A377,Concepts!A377:A917,1), "")</f>
         <v/>
       </c>
       <c r="B377" s="12"/>
@@ -22705,7 +22686,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A379,Concepts!A379:A919,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A378,Concepts!A378:A918,1), "")</f>
         <v/>
       </c>
       <c r="B378" s="12"/>
@@ -22716,7 +22697,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A380,Concepts!A380:A920,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A379,Concepts!A379:A919,1), "")</f>
         <v/>
       </c>
       <c r="B379" s="12"/>
@@ -22727,7 +22708,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A381,Concepts!A381:A921,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A380,Concepts!A380:A920,1), "")</f>
         <v/>
       </c>
       <c r="B380" s="12"/>
@@ -22738,7 +22719,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A382,Concepts!A382:A922,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A381,Concepts!A381:A921,1), "")</f>
         <v/>
       </c>
       <c r="B381" s="12"/>
@@ -22749,7 +22730,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A383,Concepts!A383:A923,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A382,Concepts!A382:A922,1), "")</f>
         <v/>
       </c>
       <c r="B382" s="12"/>
@@ -22760,7 +22741,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A384,Concepts!A384:A924,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A383,Concepts!A383:A923,1), "")</f>
         <v/>
       </c>
       <c r="B383" s="12"/>
@@ -22771,7 +22752,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A385,Concepts!A385:A925,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A384,Concepts!A384:A924,1), "")</f>
         <v/>
       </c>
       <c r="B384" s="12"/>
@@ -22782,7 +22763,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A386,Concepts!A386:A926,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A385,Concepts!A385:A925,1), "")</f>
         <v/>
       </c>
       <c r="B385" s="12"/>
@@ -22793,7 +22774,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A387,Concepts!A387:A927,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A386,Concepts!A386:A926,1), "")</f>
         <v/>
       </c>
       <c r="B386" s="12"/>
@@ -22804,7 +22785,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A388,Concepts!A388:A928,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A387,Concepts!A387:A927,1), "")</f>
         <v/>
       </c>
       <c r="B387" s="12"/>
@@ -22815,7 +22796,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A389,Concepts!A389:A929,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A388,Concepts!A388:A928,1), "")</f>
         <v/>
       </c>
       <c r="B388" s="12"/>
@@ -22826,7 +22807,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A390,Concepts!A390:A930,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A389,Concepts!A389:A929,1), "")</f>
         <v/>
       </c>
       <c r="B389" s="12"/>
@@ -22837,7 +22818,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A391,Concepts!A391:A931,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A390,Concepts!A390:A930,1), "")</f>
         <v/>
       </c>
       <c r="B390" s="12"/>
@@ -22848,7 +22829,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A392,Concepts!A392:A932,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A391,Concepts!A391:A931,1), "")</f>
         <v/>
       </c>
       <c r="B391" s="12"/>
@@ -22859,7 +22840,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A393,Concepts!A393:A933,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A392,Concepts!A392:A932,1), "")</f>
         <v/>
       </c>
       <c r="B392" s="12"/>
@@ -22870,7 +22851,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A394,Concepts!A394:A934,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A393,Concepts!A393:A933,1), "")</f>
         <v/>
       </c>
       <c r="B393" s="12"/>
@@ -22881,7 +22862,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A395,Concepts!A395:A935,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A394,Concepts!A394:A934,1), "")</f>
         <v/>
       </c>
       <c r="B394" s="12"/>
@@ -22892,7 +22873,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A396,Concepts!A396:A936,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A395,Concepts!A395:A935,1), "")</f>
         <v/>
       </c>
       <c r="B395" s="12"/>
@@ -22903,7 +22884,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A397,Concepts!A397:A937,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A396,Concepts!A396:A936,1), "")</f>
         <v/>
       </c>
       <c r="B396" s="12"/>
@@ -22914,7 +22895,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A398,Concepts!A398:A938,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A397,Concepts!A397:A937,1), "")</f>
         <v/>
       </c>
       <c r="B397" s="12"/>
@@ -22925,7 +22906,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A399,Concepts!A399:A939,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A398,Concepts!A398:A938,1), "")</f>
         <v/>
       </c>
       <c r="B398" s="12"/>
@@ -22936,7 +22917,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A400,Concepts!A400:A940,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A399,Concepts!A399:A939,1), "")</f>
         <v/>
       </c>
       <c r="B399" s="12"/>
@@ -22947,7 +22928,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A401,Concepts!A401:A941,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A400,Concepts!A400:A940,1), "")</f>
         <v/>
       </c>
       <c r="B400" s="12"/>
@@ -22958,7 +22939,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A402,Concepts!A402:A942,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A401,Concepts!A401:A941,1), "")</f>
         <v/>
       </c>
       <c r="B401" s="12"/>
@@ -22969,7 +22950,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A403,Concepts!A403:A943,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A402,Concepts!A402:A942,1), "")</f>
         <v/>
       </c>
       <c r="B402" s="12"/>
@@ -22980,7 +22961,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A404,Concepts!A404:A944,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A403,Concepts!A403:A943,1), "")</f>
         <v/>
       </c>
       <c r="B403" s="12"/>
@@ -22991,7 +22972,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A405,Concepts!A405:A945,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A404,Concepts!A404:A944,1), "")</f>
         <v/>
       </c>
       <c r="B404" s="12"/>
@@ -23002,7 +22983,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A406,Concepts!A406:A946,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A405,Concepts!A405:A945,1), "")</f>
         <v/>
       </c>
       <c r="B405" s="12"/>
@@ -23013,7 +22994,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A407,Concepts!A407:A947,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A406,Concepts!A406:A946,1), "")</f>
         <v/>
       </c>
       <c r="B406" s="12"/>
@@ -23024,7 +23005,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A408,Concepts!A408:A948,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A407,Concepts!A407:A947,1), "")</f>
         <v/>
       </c>
       <c r="B407" s="12"/>
@@ -23035,7 +23016,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A409,Concepts!A409:A949,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A408,Concepts!A408:A948,1), "")</f>
         <v/>
       </c>
       <c r="B408" s="12"/>
@@ -23046,7 +23027,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A410,Concepts!A410:A950,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A409,Concepts!A409:A949,1), "")</f>
         <v/>
       </c>
       <c r="B409" s="12"/>
@@ -23057,7 +23038,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A411,Concepts!A411:A951,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A410,Concepts!A410:A950,1), "")</f>
         <v/>
       </c>
       <c r="B410" s="12"/>
@@ -23068,7 +23049,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A412,Concepts!A412:A952,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A411,Concepts!A411:A951,1), "")</f>
         <v/>
       </c>
       <c r="B411" s="12"/>
@@ -23079,7 +23060,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A413,Concepts!A413:A953,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A412,Concepts!A412:A952,1), "")</f>
         <v/>
       </c>
       <c r="B412" s="12"/>
@@ -23090,7 +23071,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A414,Concepts!A414:A954,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A413,Concepts!A413:A953,1), "")</f>
         <v/>
       </c>
       <c r="B413" s="12"/>
@@ -23101,7 +23082,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A415,Concepts!A415:A955,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A414,Concepts!A414:A954,1), "")</f>
         <v/>
       </c>
       <c r="B414" s="12"/>
@@ -23112,7 +23093,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A416,Concepts!A416:A956,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A415,Concepts!A415:A955,1), "")</f>
         <v/>
       </c>
       <c r="B415" s="12"/>
@@ -23123,7 +23104,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A417,Concepts!A417:A957,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A416,Concepts!A416:A956,1), "")</f>
         <v/>
       </c>
       <c r="B416" s="12"/>
@@ -23134,7 +23115,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A418,Concepts!A418:A958,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A417,Concepts!A417:A957,1), "")</f>
         <v/>
       </c>
       <c r="B417" s="12"/>
@@ -23145,7 +23126,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A419,Concepts!A419:A959,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A418,Concepts!A418:A958,1), "")</f>
         <v/>
       </c>
       <c r="B418" s="12"/>
@@ -23156,7 +23137,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A420,Concepts!A420:A960,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A419,Concepts!A419:A959,1), "")</f>
         <v/>
       </c>
       <c r="B419" s="12"/>
@@ -23167,7 +23148,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A421,Concepts!A421:A961,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A420,Concepts!A420:A960,1), "")</f>
         <v/>
       </c>
       <c r="B420" s="12"/>
@@ -23178,7 +23159,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A422,Concepts!A422:A962,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A421,Concepts!A421:A961,1), "")</f>
         <v/>
       </c>
       <c r="B421" s="12"/>
@@ -23189,7 +23170,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A423,Concepts!A423:A963,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A422,Concepts!A422:A962,1), "")</f>
         <v/>
       </c>
       <c r="B422" s="12"/>
@@ -23200,7 +23181,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A424,Concepts!A424:A964,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A423,Concepts!A423:A963,1), "")</f>
         <v/>
       </c>
       <c r="B423" s="12"/>
@@ -23211,7 +23192,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A425,Concepts!A425:A965,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A424,Concepts!A424:A964,1), "")</f>
         <v/>
       </c>
       <c r="B424" s="12"/>
@@ -23222,7 +23203,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A426,Concepts!A426:A966,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A425,Concepts!A425:A965,1), "")</f>
         <v/>
       </c>
       <c r="B425" s="12"/>
@@ -23233,7 +23214,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A427,Concepts!A427:A967,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A426,Concepts!A426:A966,1), "")</f>
         <v/>
       </c>
       <c r="B426" s="12"/>
@@ -23244,7 +23225,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A428,Concepts!A428:A968,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A427,Concepts!A427:A967,1), "")</f>
         <v/>
       </c>
       <c r="B427" s="12"/>
@@ -23255,7 +23236,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A429,Concepts!A429:A969,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A428,Concepts!A428:A968,1), "")</f>
         <v/>
       </c>
       <c r="B428" s="12"/>
@@ -23266,7 +23247,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A430,Concepts!A430:A970,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A429,Concepts!A429:A969,1), "")</f>
         <v/>
       </c>
       <c r="B429" s="12"/>
@@ -23277,7 +23258,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A431,Concepts!A431:A971,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A430,Concepts!A430:A970,1), "")</f>
         <v/>
       </c>
       <c r="B430" s="12"/>
@@ -23288,7 +23269,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A432,Concepts!A432:A972,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A431,Concepts!A431:A971,1), "")</f>
         <v/>
       </c>
       <c r="B431" s="12"/>
@@ -23299,7 +23280,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A433,Concepts!A433:A973,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A432,Concepts!A432:A972,1), "")</f>
         <v/>
       </c>
       <c r="B432" s="12"/>
@@ -23310,7 +23291,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A434,Concepts!A434:A974,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A433,Concepts!A433:A973,1), "")</f>
         <v/>
       </c>
       <c r="B433" s="12"/>
@@ -23321,7 +23302,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A435,Concepts!A435:A975,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A434,Concepts!A434:A974,1), "")</f>
         <v/>
       </c>
       <c r="B434" s="12"/>
@@ -23332,7 +23313,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A436,Concepts!A436:A976,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A435,Concepts!A435:A975,1), "")</f>
         <v/>
       </c>
       <c r="B435" s="12"/>
@@ -23343,7 +23324,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A437,Concepts!A437:A977,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A436,Concepts!A436:A976,1), "")</f>
         <v/>
       </c>
       <c r="B436" s="12"/>
@@ -23354,7 +23335,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A438,Concepts!A438:A978,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A437,Concepts!A437:A977,1), "")</f>
         <v/>
       </c>
       <c r="B437" s="12"/>
@@ -23365,7 +23346,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A439,Concepts!A439:A979,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A438,Concepts!A438:A978,1), "")</f>
         <v/>
       </c>
       <c r="B438" s="12"/>
@@ -23376,7 +23357,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A440,Concepts!A440:A980,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A439,Concepts!A439:A979,1), "")</f>
         <v/>
       </c>
       <c r="B439" s="12"/>
@@ -23387,7 +23368,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A441,Concepts!A441:A981,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A440,Concepts!A440:A980,1), "")</f>
         <v/>
       </c>
       <c r="B440" s="12"/>
@@ -23398,7 +23379,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A442,Concepts!A442:A982,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A441,Concepts!A441:A981,1), "")</f>
         <v/>
       </c>
       <c r="B441" s="12"/>
@@ -23409,7 +23390,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A443,Concepts!A443:A983,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A442,Concepts!A442:A982,1), "")</f>
         <v/>
       </c>
       <c r="B442" s="12"/>
@@ -23420,7 +23401,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A444,Concepts!A444:A984,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A443,Concepts!A443:A983,1), "")</f>
         <v/>
       </c>
       <c r="B443" s="12"/>
@@ -23431,7 +23412,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A445,Concepts!A445:A985,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A444,Concepts!A444:A984,1), "")</f>
         <v/>
       </c>
       <c r="B444" s="12"/>
@@ -23442,7 +23423,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A446,Concepts!A446:A986,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A445,Concepts!A445:A985,1), "")</f>
         <v/>
       </c>
       <c r="B445" s="12"/>
@@ -23453,7 +23434,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A447,Concepts!A447:A987,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A446,Concepts!A446:A986,1), "")</f>
         <v/>
       </c>
       <c r="B446" s="12"/>
@@ -23464,7 +23445,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A448,Concepts!A448:A988,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A447,Concepts!A447:A987,1), "")</f>
         <v/>
       </c>
       <c r="B447" s="12"/>
@@ -23475,7 +23456,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A449,Concepts!A449:A989,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A448,Concepts!A448:A988,1), "")</f>
         <v/>
       </c>
       <c r="B448" s="12"/>
@@ -23486,7 +23467,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A450,Concepts!A450:A990,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A449,Concepts!A449:A989,1), "")</f>
         <v/>
       </c>
       <c r="B449" s="12"/>
@@ -23497,7 +23478,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A451,Concepts!A451:A991,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A450,Concepts!A450:A990,1), "")</f>
         <v/>
       </c>
       <c r="B450" s="12"/>
@@ -23508,7 +23489,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A452,Concepts!A452:A992,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A451,Concepts!A451:A991,1), "")</f>
         <v/>
       </c>
       <c r="B451" s="12"/>
@@ -23519,7 +23500,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A453,Concepts!A453:A993,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A452,Concepts!A452:A992,1), "")</f>
         <v/>
       </c>
       <c r="B452" s="12"/>
@@ -23530,7 +23511,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A454,Concepts!A454:A994,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A453,Concepts!A453:A993,1), "")</f>
         <v/>
       </c>
       <c r="B453" s="12"/>
@@ -23541,7 +23522,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A455,Concepts!A455:A995,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A454,Concepts!A454:A994,1), "")</f>
         <v/>
       </c>
       <c r="B454" s="12"/>
@@ -23552,7 +23533,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A456,Concepts!A456:A996,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A455,Concepts!A455:A995,1), "")</f>
         <v/>
       </c>
       <c r="B455" s="12"/>
@@ -23563,7 +23544,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A457,Concepts!A457:A997,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A456,Concepts!A456:A996,1), "")</f>
         <v/>
       </c>
       <c r="B456" s="12"/>
@@ -23574,7 +23555,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A458,Concepts!A458:A998,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A457,Concepts!A457:A997,1), "")</f>
         <v/>
       </c>
       <c r="B457" s="12"/>
@@ -23585,7 +23566,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A459,Concepts!A459:A999,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A458,Concepts!A458:A998,1), "")</f>
         <v/>
       </c>
       <c r="B458" s="12"/>
@@ -23596,7 +23577,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A460,Concepts!A460:A1000,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A459,Concepts!A459:A999,1), "")</f>
         <v/>
       </c>
       <c r="B459" s="12"/>
@@ -23607,7 +23588,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A461,Concepts!A461:A1001,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A460,Concepts!A460:A1000,1), "")</f>
         <v/>
       </c>
       <c r="B460" s="12"/>
@@ -23618,7 +23599,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A462,Concepts!A462:A1002,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A461,Concepts!A461:A1001,1), "")</f>
         <v/>
       </c>
       <c r="B461" s="12"/>
@@ -23629,7 +23610,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A463,Concepts!A463:A1003,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A462,Concepts!A462:A1002,1), "")</f>
         <v/>
       </c>
       <c r="B462" s="12"/>
@@ -23640,7 +23621,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A464,Concepts!A464:A1004,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A463,Concepts!A463:A1003,1), "")</f>
         <v/>
       </c>
       <c r="B463" s="12"/>
@@ -23651,7 +23632,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A465,Concepts!A465:A1005,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A464,Concepts!A464:A1004,1), "")</f>
         <v/>
       </c>
       <c r="B464" s="12"/>
@@ -23662,7 +23643,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A466,Concepts!A466:A1006,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A465,Concepts!A465:A1005,1), "")</f>
         <v/>
       </c>
       <c r="B465" s="12"/>
@@ -23673,7 +23654,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A467,Concepts!A467:A1007,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A466,Concepts!A466:A1006,1), "")</f>
         <v/>
       </c>
       <c r="B466" s="12"/>
@@ -23684,7 +23665,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A468,Concepts!A468:A1008,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A467,Concepts!A467:A1007,1), "")</f>
         <v/>
       </c>
       <c r="B467" s="12"/>
@@ -23695,7 +23676,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A469,Concepts!A469:A1009,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A468,Concepts!A468:A1008,1), "")</f>
         <v/>
       </c>
       <c r="B468" s="12"/>
@@ -23706,7 +23687,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A470,Concepts!A470:A1010,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A469,Concepts!A469:A1009,1), "")</f>
         <v/>
       </c>
       <c r="B469" s="12"/>
@@ -23717,7 +23698,7 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A471,Concepts!A471:A1011,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A470,Concepts!A470:A1010,1), "")</f>
         <v/>
       </c>
       <c r="B470" s="12"/>
@@ -23728,7 +23709,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A472,Concepts!A472:A1012,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A471,Concepts!A471:A1011,1), "")</f>
         <v/>
       </c>
       <c r="B471" s="12"/>
@@ -23739,7 +23720,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A473,Concepts!A473:A1013,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A472,Concepts!A472:A1012,1), "")</f>
         <v/>
       </c>
       <c r="B472" s="12"/>
@@ -23750,7 +23731,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A474,Concepts!A474:A1014,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A473,Concepts!A473:A1013,1), "")</f>
         <v/>
       </c>
       <c r="B473" s="12"/>
@@ -23761,7 +23742,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A475,Concepts!A475:A1015,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A474,Concepts!A474:A1014,1), "")</f>
         <v/>
       </c>
       <c r="B474" s="12"/>
@@ -23772,7 +23753,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A476,Concepts!A476:A1016,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A475,Concepts!A475:A1015,1), "")</f>
         <v/>
       </c>
       <c r="B475" s="12"/>
@@ -23783,7 +23764,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A477,Concepts!A477:A1017,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A476,Concepts!A476:A1016,1), "")</f>
         <v/>
       </c>
       <c r="B476" s="12"/>
@@ -23794,7 +23775,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A478,Concepts!A478:A1018,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A477,Concepts!A477:A1017,1), "")</f>
         <v/>
       </c>
       <c r="B477" s="12"/>
@@ -23805,7 +23786,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A479,Concepts!A479:A1019,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A478,Concepts!A478:A1018,1), "")</f>
         <v/>
       </c>
       <c r="B478" s="12"/>
@@ -23816,7 +23797,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A480,Concepts!A480:A1020,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A479,Concepts!A479:A1019,1), "")</f>
         <v/>
       </c>
       <c r="B479" s="12"/>
@@ -23827,7 +23808,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A481,Concepts!A481:A1021,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A480,Concepts!A480:A1020,1), "")</f>
         <v/>
       </c>
       <c r="B480" s="12"/>
@@ -23838,7 +23819,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A482,Concepts!A482:A1022,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A481,Concepts!A481:A1021,1), "")</f>
         <v/>
       </c>
       <c r="B481" s="12"/>
@@ -23849,7 +23830,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A483,Concepts!A483:A1023,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A482,Concepts!A482:A1022,1), "")</f>
         <v/>
       </c>
       <c r="B482" s="12"/>
@@ -23860,7 +23841,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A484,Concepts!A484:A1024,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A483,Concepts!A483:A1023,1), "")</f>
         <v/>
       </c>
       <c r="B483" s="12"/>
@@ -23871,7 +23852,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A485,Concepts!A485:A1025,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A484,Concepts!A484:A1024,1), "")</f>
         <v/>
       </c>
       <c r="B484" s="12"/>
@@ -23882,7 +23863,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A486,Concepts!A486:A1026,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A485,Concepts!A485:A1025,1), "")</f>
         <v/>
       </c>
       <c r="B485" s="12"/>
@@ -23893,7 +23874,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A487,Concepts!A487:A1027,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A486,Concepts!A486:A1026,1), "")</f>
         <v/>
       </c>
       <c r="B486" s="12"/>
@@ -23904,7 +23885,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A488,Concepts!A488:A1028,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A487,Concepts!A487:A1027,1), "")</f>
         <v/>
       </c>
       <c r="B487" s="12"/>
@@ -23915,7 +23896,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A489,Concepts!A489:A1029,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A488,Concepts!A488:A1028,1), "")</f>
         <v/>
       </c>
       <c r="B488" s="12"/>
@@ -23926,7 +23907,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A490,Concepts!A490:A1030,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A489,Concepts!A489:A1029,1), "")</f>
         <v/>
       </c>
       <c r="B489" s="12"/>
@@ -23937,7 +23918,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A491,Concepts!A491:A1031,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A490,Concepts!A490:A1030,1), "")</f>
         <v/>
       </c>
       <c r="B490" s="12"/>
@@ -23948,7 +23929,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A492,Concepts!A492:A1032,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A491,Concepts!A491:A1031,1), "")</f>
         <v/>
       </c>
       <c r="B491" s="12"/>
@@ -23959,7 +23940,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A493,Concepts!A493:A1033,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A492,Concepts!A492:A1032,1), "")</f>
         <v/>
       </c>
       <c r="B492" s="12"/>
@@ -23970,7 +23951,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A494,Concepts!A494:A1034,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A493,Concepts!A493:A1033,1), "")</f>
         <v/>
       </c>
       <c r="B493" s="12"/>
@@ -23981,7 +23962,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A495,Concepts!A495:A1035,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A494,Concepts!A494:A1034,1), "")</f>
         <v/>
       </c>
       <c r="B494" s="12"/>
@@ -23992,7 +23973,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A496,Concepts!A496:A1036,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A495,Concepts!A495:A1035,1), "")</f>
         <v/>
       </c>
       <c r="B495" s="12"/>
@@ -24003,7 +23984,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A497,Concepts!A497:A1037,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A496,Concepts!A496:A1036,1), "")</f>
         <v/>
       </c>
       <c r="B496" s="12"/>
@@ -24014,7 +23995,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A498,Concepts!A498:A1038,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A497,Concepts!A497:A1037,1), "")</f>
         <v/>
       </c>
       <c r="B497" s="12"/>
@@ -24025,7 +24006,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A499,Concepts!A499:A1039,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A498,Concepts!A498:A1038,1), "")</f>
         <v/>
       </c>
       <c r="B498" s="12"/>
@@ -24036,7 +24017,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A500,Concepts!A500:A1040,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A499,Concepts!A499:A1039,1), "")</f>
         <v/>
       </c>
       <c r="B499" s="12"/>
@@ -24047,7 +24028,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" s="23" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A501,Concepts!A501:A1041,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A500,Concepts!A500:A1040,1), "")</f>
         <v/>
       </c>
       <c r="B500" s="12"/>
